--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -2341,17 +2341,13 @@
         <v>5.727499999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5.66</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2380,22 +2376,14 @@
         <v>5.723499999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2423,22 +2411,14 @@
         <v>5.720999999999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2472,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="K59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -2511,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>5.69</v>
+        <v>5.83</v>
       </c>
       <c r="K60" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2555,7 +2535,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2589,16 +2569,14 @@
         <v>5.716499999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2632,16 +2610,14 @@
         <v>5.705999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
         <v>5.67</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5.83</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2675,16 +2651,14 @@
         <v>5.704999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2718,16 +2692,14 @@
         <v>5.706499999999998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.71</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2761,16 +2733,14 @@
         <v>5.704499999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2804,16 +2774,14 @@
         <v>5.702499999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2847,16 +2815,14 @@
         <v>5.7005</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.73</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2890,16 +2856,14 @@
         <v>5.699</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2933,16 +2897,14 @@
         <v>5.705499999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2983,7 +2945,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3024,7 +2986,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3065,7 +3027,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3102,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>1.047910052910053</v>
       </c>
     </row>
     <row r="75">
@@ -3146,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3187,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3228,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +3213,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3310,14 +3248,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3351,14 +3283,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3392,14 +3318,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3433,14 +3353,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +3388,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3515,14 +3423,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3556,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3597,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3638,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3679,14 +3563,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3598,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3668,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3843,14 +3703,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3922,19 +3770,13 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>1.008722126929674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3998,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4033,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4068,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4138,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4173,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4208,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4313,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4453,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4698,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -6308,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6375,13 +6217,17 @@
         <v>5.7705</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K164" t="n">
+        <v>5.75</v>
+      </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
@@ -6410,14 +6256,22 @@
         <v>5.771500000000001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K165" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6448,11 +6302,17 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6728,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>5.95</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>5.914499999999999</v>
+        <v>5.96683333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="C3" t="n">
         <v>5.95</v>
@@ -477,13 +477,13 @@
         <v>5.95</v>
       </c>
       <c r="E3" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F3" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>5.918499999999999</v>
+        <v>5.966666666666673</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>5.95</v>
       </c>
       <c r="E4" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4" t="n">
-        <v>5.915999999999999</v>
+        <v>5.966500000000007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="C5" t="n">
-        <v>5.87</v>
+        <v>5.95</v>
       </c>
       <c r="D5" t="n">
-        <v>5.87</v>
+        <v>5.95</v>
       </c>
       <c r="E5" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>5.917</v>
+        <v>5.966500000000007</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C6" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="D6" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E6" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F6" t="n">
-        <v>53577.0342</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9175</v>
+        <v>5.965166666666674</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C7" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="D7" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E7" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F7" t="n">
-        <v>74509.9485</v>
+        <v>53577.0342</v>
       </c>
       <c r="G7" t="n">
-        <v>5.917</v>
+        <v>5.961833333333341</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="C8" t="n">
-        <v>5.95</v>
+        <v>5.83</v>
       </c>
       <c r="D8" t="n">
-        <v>5.95</v>
+        <v>5.83</v>
       </c>
       <c r="E8" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>74509.9485</v>
       </c>
       <c r="G8" t="n">
-        <v>5.92</v>
+        <v>5.958166666666673</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.93</v>
+        <v>5.91</v>
       </c>
       <c r="C9" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D9" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E9" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>5.923999999999999</v>
+        <v>5.958000000000007</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C10" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D10" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E10" t="n">
-        <v>5.95</v>
+        <v>5.92</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>5.923999999999999</v>
+        <v>5.956000000000007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.86</v>
+        <v>5.95</v>
       </c>
       <c r="C11" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D11" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E11" t="n">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="F11" t="n">
-        <v>111121</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>5.919499999999999</v>
+        <v>5.95433333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="C12" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D12" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="E12" t="n">
         <v>5.85</v>
       </c>
       <c r="F12" t="n">
-        <v>1551.9222</v>
+        <v>111121</v>
       </c>
       <c r="G12" t="n">
-        <v>5.914499999999999</v>
+        <v>5.952500000000006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C13" t="n">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
       <c r="D13" t="n">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
       <c r="E13" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>1551.9222</v>
       </c>
       <c r="G13" t="n">
-        <v>5.912499999999999</v>
+        <v>5.949166666666673</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="C14" t="n">
         <v>5.94</v>
@@ -862,13 +862,13 @@
         <v>5.94</v>
       </c>
       <c r="E14" t="n">
-        <v>5.86</v>
+        <v>5.91</v>
       </c>
       <c r="F14" t="n">
-        <v>5240</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>5.909499999999999</v>
+        <v>5.947333333333339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="C15" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="D15" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E15" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="F15" t="n">
-        <v>5220</v>
+        <v>5240</v>
       </c>
       <c r="G15" t="n">
-        <v>5.904499999999998</v>
+        <v>5.945500000000006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C16" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="D16" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="E16" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F16" t="n">
-        <v>18343.2767</v>
+        <v>5220</v>
       </c>
       <c r="G16" t="n">
-        <v>5.901999999999998</v>
+        <v>5.943833333333339</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="C17" t="n">
         <v>5.92</v>
@@ -967,13 +967,13 @@
         <v>5.92</v>
       </c>
       <c r="E17" t="n">
-        <v>5.92</v>
+        <v>5.83</v>
       </c>
       <c r="F17" t="n">
-        <v>1448.7297</v>
+        <v>18343.2767</v>
       </c>
       <c r="G17" t="n">
-        <v>5.901499999999999</v>
+        <v>5.941666666666673</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>5.92</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>1448.7297</v>
       </c>
       <c r="G18" t="n">
-        <v>5.903499999999999</v>
+        <v>5.939500000000006</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>5.902499999999999</v>
+        <v>5.937333333333339</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="C20" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="D20" t="n">
         <v>5.92</v>
       </c>
       <c r="E20" t="n">
-        <v>5.83</v>
+        <v>5.92</v>
       </c>
       <c r="F20" t="n">
-        <v>1102320.7851</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>5.900499999999999</v>
+        <v>5.935166666666673</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="C21" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="D21" t="n">
-        <v>5.83</v>
+        <v>5.92</v>
       </c>
       <c r="E21" t="n">
         <v>5.83</v>
       </c>
       <c r="F21" t="n">
-        <v>94879.52650000001</v>
+        <v>1102320.7851</v>
       </c>
       <c r="G21" t="n">
-        <v>5.894499999999999</v>
+        <v>5.932833333333339</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="C22" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="D22" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="E22" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>94879.52650000001</v>
       </c>
       <c r="G22" t="n">
-        <v>5.891999999999999</v>
+        <v>5.929166666666672</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>5.890999999999999</v>
+        <v>5.927833333333338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>5.889999999999999</v>
+        <v>5.926666666666671</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>5.9</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>5.891499999999999</v>
+        <v>5.925333333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="C26" t="n">
         <v>5.9</v>
@@ -1282,13 +1282,13 @@
         <v>5.9</v>
       </c>
       <c r="E26" t="n">
-        <v>5.82</v>
+        <v>5.9</v>
       </c>
       <c r="F26" t="n">
-        <v>149698.0474</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>5.892999999999999</v>
+        <v>5.923000000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C27" t="n">
         <v>5.9</v>
@@ -1317,13 +1317,13 @@
         <v>5.9</v>
       </c>
       <c r="E27" t="n">
-        <v>5.9</v>
+        <v>5.82</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>149698.0474</v>
       </c>
       <c r="G27" t="n">
-        <v>5.8965</v>
+        <v>5.921666666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.83</v>
+        <v>5.9</v>
       </c>
       <c r="C28" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="D28" t="n">
-        <v>5.83</v>
+        <v>5.9</v>
       </c>
       <c r="E28" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>5.8925</v>
+        <v>5.920666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.79</v>
       </c>
-      <c r="C29" t="n">
-        <v>5.89</v>
-      </c>
       <c r="D29" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="E29" t="n">
         <v>5.79</v>
       </c>
       <c r="F29" t="n">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>5.8855</v>
+        <v>5.917166666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="C30" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D30" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E30" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>10010</v>
       </c>
       <c r="G30" t="n">
-        <v>5.878500000000001</v>
+        <v>5.918500000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="C31" t="n">
-        <v>5.79</v>
+        <v>5.87</v>
       </c>
       <c r="D31" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E31" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>5.880000000000001</v>
+        <v>5.916666666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C32" t="n">
         <v>5.79</v>
       </c>
-      <c r="C32" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D32" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E32" t="n">
         <v>5.79</v>
       </c>
       <c r="F32" t="n">
-        <v>4313.4624</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>5.877000000000001</v>
+        <v>5.913666666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="C33" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D33" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E33" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>4313.4624</v>
       </c>
       <c r="G33" t="n">
-        <v>5.876000000000001</v>
+        <v>5.912000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="C34" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="D34" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="E34" t="n">
-        <v>5.81</v>
+        <v>5.89</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>5.872500000000001</v>
+        <v>5.910666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.8</v>
+        <v>5.82</v>
       </c>
       <c r="C35" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="D35" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="E35" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="F35" t="n">
-        <v>189664.7938</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>5.870000000000002</v>
+        <v>5.912666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.88</v>
+        <v>5.8</v>
       </c>
       <c r="C36" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="D36" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="E36" t="n">
-        <v>5.88</v>
+        <v>5.78</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>189664.7938</v>
       </c>
       <c r="G36" t="n">
-        <v>5.869500000000001</v>
+        <v>5.910000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="C37" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="D37" t="n">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="E37" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="F37" t="n">
-        <v>349512.3483</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>5.860500000000001</v>
+        <v>5.911500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C38" t="n">
         <v>5.72</v>
       </c>
-      <c r="C38" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D38" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="E38" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="F38" t="n">
-        <v>1461512.9057</v>
+        <v>349512.3483</v>
       </c>
       <c r="G38" t="n">
-        <v>5.850500000000001</v>
+        <v>5.907000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.89</v>
+        <v>5.72</v>
       </c>
       <c r="C39" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D39" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E39" t="n">
-        <v>5.89</v>
+        <v>5.65</v>
       </c>
       <c r="F39" t="n">
-        <v>18</v>
+        <v>1461512.9057</v>
       </c>
       <c r="G39" t="n">
-        <v>5.849000000000001</v>
+        <v>5.905166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.66</v>
+        <v>5.89</v>
       </c>
       <c r="C40" t="n">
-        <v>5.66</v>
+        <v>5.89</v>
       </c>
       <c r="D40" t="n">
-        <v>5.66</v>
+        <v>5.89</v>
       </c>
       <c r="E40" t="n">
-        <v>5.66</v>
+        <v>5.89</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>5.836500000000001</v>
+        <v>5.9035</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="C41" t="n">
-        <v>5.74</v>
+        <v>5.66</v>
       </c>
       <c r="D41" t="n">
-        <v>5.74</v>
+        <v>5.66</v>
       </c>
       <c r="E41" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>5.828500000000001</v>
+        <v>5.898000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.75</v>
+        <v>5.67</v>
       </c>
       <c r="C42" t="n">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="D42" t="n">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="E42" t="n">
-        <v>5.75</v>
+        <v>5.67</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>5.821000000000001</v>
+        <v>5.896333333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="C43" t="n">
-        <v>5.89</v>
+        <v>5.76</v>
       </c>
       <c r="D43" t="n">
-        <v>5.89</v>
+        <v>5.76</v>
       </c>
       <c r="E43" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>5.82</v>
+        <v>5.895000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.7</v>
+        <v>5.88</v>
       </c>
       <c r="C44" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="D44" t="n">
-        <v>5.7</v>
+        <v>5.89</v>
       </c>
       <c r="E44" t="n">
-        <v>5.68</v>
+        <v>5.88</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>5.81</v>
+        <v>5.893666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C45" t="n">
         <v>5.68</v>
       </c>
-      <c r="C45" t="n">
-        <v>5.75</v>
-      </c>
       <c r="D45" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="E45" t="n">
         <v>5.68</v>
       </c>
       <c r="F45" t="n">
-        <v>75128.3759</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>5.798999999999999</v>
+        <v>5.888666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="C46" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="D46" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="E46" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>75128.3759</v>
       </c>
       <c r="G46" t="n">
-        <v>5.791499999999999</v>
+        <v>5.887</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>5.74</v>
       </c>
       <c r="C47" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="D47" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="E47" t="n">
         <v>5.74</v>
       </c>
       <c r="F47" t="n">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>5.783499999999998</v>
+        <v>5.885333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C48" t="n">
         <v>5.77</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.78</v>
-      </c>
       <c r="D48" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E48" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="F48" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G48" t="n">
-        <v>5.780499999999998</v>
+        <v>5.884166666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>5.77</v>
       </c>
       <c r="C49" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="D49" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E49" t="n">
         <v>5.77</v>
       </c>
-      <c r="E49" t="n">
-        <v>5.74</v>
-      </c>
       <c r="F49" t="n">
-        <v>39980.6782</v>
+        <v>144</v>
       </c>
       <c r="G49" t="n">
-        <v>5.779499999999998</v>
+        <v>5.883</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="C50" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="D50" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="E50" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>39980.6782</v>
       </c>
       <c r="G50" t="n">
-        <v>5.776499999999998</v>
+        <v>5.879333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="C51" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="D51" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="E51" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="F51" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>5.769999999999998</v>
+        <v>5.875833333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.7</v>
+        <v>5.76</v>
       </c>
       <c r="C52" t="n">
-        <v>5.7</v>
+        <v>5.78</v>
       </c>
       <c r="D52" t="n">
-        <v>5.7</v>
+        <v>5.78</v>
       </c>
       <c r="E52" t="n">
-        <v>5.7</v>
+        <v>5.76</v>
       </c>
       <c r="F52" t="n">
-        <v>27206.3859</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>5.765499999999998</v>
+        <v>5.873000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="C53" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="D53" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="E53" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="F53" t="n">
-        <v>52396.308</v>
+        <v>27206.3859</v>
       </c>
       <c r="G53" t="n">
-        <v>5.753999999999998</v>
+        <v>5.868833333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="C54" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="D54" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="E54" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>52396.308</v>
       </c>
       <c r="G54" t="n">
-        <v>5.745499999999998</v>
+        <v>5.864000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="C55" t="n">
         <v>5.65</v>
       </c>
       <c r="D55" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="E55" t="n">
         <v>5.65</v>
       </c>
       <c r="F55" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>5.738499999999998</v>
+        <v>5.859000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>5.66</v>
       </c>
       <c r="C56" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="D56" t="n">
         <v>5.66</v>
       </c>
       <c r="E56" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="F56" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="G56" t="n">
-        <v>5.727499999999998</v>
+        <v>5.854000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>5.66</v>
       </c>
       <c r="F57" t="n">
-        <v>2263.6041</v>
+        <v>250000</v>
       </c>
       <c r="G57" t="n">
-        <v>5.723499999999999</v>
+        <v>5.849333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="C58" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="D58" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="E58" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>2263.6041</v>
       </c>
       <c r="G58" t="n">
-        <v>5.720999999999998</v>
+        <v>5.844666666666669</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,35 +2428,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="C59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="D59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="E59" t="n">
-        <v>5.83</v>
+        <v>5.67</v>
       </c>
       <c r="F59" t="n">
-        <v>10.6346</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>5.717999999999998</v>
+        <v>5.840333333333335</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K59" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2467,40 +2463,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.69</v>
+        <v>5.83</v>
       </c>
       <c r="C60" t="n">
-        <v>5.67</v>
+        <v>5.83</v>
       </c>
       <c r="D60" t="n">
-        <v>5.69</v>
+        <v>5.83</v>
       </c>
       <c r="E60" t="n">
-        <v>5.67</v>
+        <v>5.83</v>
       </c>
       <c r="F60" t="n">
-        <v>103686</v>
+        <v>10.6346</v>
       </c>
       <c r="G60" t="n">
-        <v>5.719499999999998</v>
+        <v>5.838166666666669</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C61" t="n">
         <v>5.67</v>
       </c>
-      <c r="C61" t="n">
-        <v>5.77</v>
-      </c>
       <c r="D61" t="n">
-        <v>5.77</v>
+        <v>5.69</v>
       </c>
       <c r="E61" t="n">
         <v>5.67</v>
       </c>
       <c r="F61" t="n">
-        <v>1010</v>
+        <v>103686</v>
       </c>
       <c r="G61" t="n">
-        <v>5.719499999999998</v>
+        <v>5.834000000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2534,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2551,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="C62" t="n">
-        <v>5.68</v>
+        <v>5.77</v>
       </c>
       <c r="D62" t="n">
-        <v>5.69</v>
+        <v>5.77</v>
       </c>
       <c r="E62" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F62" t="n">
-        <v>94</v>
+        <v>1010</v>
       </c>
       <c r="G62" t="n">
-        <v>5.716499999999998</v>
+        <v>5.831000000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2575,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="C63" t="n">
         <v>5.68</v>
       </c>
       <c r="D63" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E63" t="n">
         <v>5.68</v>
       </c>
-      <c r="E63" t="n">
-        <v>5.67</v>
-      </c>
       <c r="F63" t="n">
-        <v>1549.2283</v>
+        <v>94</v>
       </c>
       <c r="G63" t="n">
-        <v>5.705999999999999</v>
+        <v>5.826500000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2616,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2633,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C64" t="n">
         <v>5.68</v>
       </c>
-      <c r="C64" t="n">
-        <v>5.73</v>
-      </c>
       <c r="D64" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="E64" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F64" t="n">
-        <v>55</v>
+        <v>1549.2283</v>
       </c>
       <c r="G64" t="n">
-        <v>5.704999999999999</v>
+        <v>5.822000000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2657,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="C65" t="n">
-        <v>5.68</v>
+        <v>5.73</v>
       </c>
       <c r="D65" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="E65" t="n">
         <v>5.68</v>
       </c>
       <c r="F65" t="n">
-        <v>20011</v>
+        <v>55</v>
       </c>
       <c r="G65" t="n">
-        <v>5.706499999999998</v>
+        <v>5.818333333333337</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2698,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2715,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C66" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="D66" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="E66" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>20011</v>
       </c>
       <c r="G66" t="n">
-        <v>5.704499999999999</v>
+        <v>5.81516666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2739,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2759,19 +2711,19 @@
         <v>5.7</v>
       </c>
       <c r="C67" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="D67" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="E67" t="n">
         <v>5.7</v>
       </c>
       <c r="F67" t="n">
-        <v>40018</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>5.702499999999999</v>
+        <v>5.81266666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2780,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2797,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C68" t="n">
         <v>5.73</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.74</v>
-      </c>
       <c r="D68" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E68" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="F68" t="n">
-        <v>78600</v>
+        <v>40018</v>
       </c>
       <c r="G68" t="n">
-        <v>5.7005</v>
+        <v>5.811000000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2821,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2838,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C69" t="n">
         <v>5.74</v>
       </c>
-      <c r="C69" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D69" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="E69" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="F69" t="n">
-        <v>75571</v>
+        <v>78600</v>
       </c>
       <c r="G69" t="n">
-        <v>5.699</v>
+        <v>5.807500000000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2862,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2879,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C70" t="n">
         <v>5.88</v>
       </c>
-      <c r="C70" t="n">
-        <v>5.92</v>
-      </c>
       <c r="D70" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
       <c r="E70" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="F70" t="n">
-        <v>311593.2138</v>
+        <v>75571</v>
       </c>
       <c r="G70" t="n">
-        <v>5.705499999999999</v>
+        <v>5.80666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2903,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2920,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C71" t="n">
         <v>5.92</v>
       </c>
-      <c r="C71" t="n">
-        <v>5.98</v>
-      </c>
       <c r="D71" t="n">
-        <v>5.98</v>
+        <v>5.92</v>
       </c>
       <c r="E71" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
       <c r="F71" t="n">
-        <v>1041574.9936</v>
+        <v>311593.2138</v>
       </c>
       <c r="G71" t="n">
-        <v>5.713499999999999</v>
+        <v>5.80616666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2944,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2961,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.98</v>
+        <v>5.92</v>
       </c>
       <c r="C72" t="n">
         <v>5.98</v>
@@ -2970,13 +2892,13 @@
         <v>5.98</v>
       </c>
       <c r="E72" t="n">
-        <v>5.98</v>
+        <v>5.92</v>
       </c>
       <c r="F72" t="n">
-        <v>119</v>
+        <v>1041574.9936</v>
       </c>
       <c r="G72" t="n">
-        <v>5.727499999999999</v>
+        <v>5.806833333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2985,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3002,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C73" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="D73" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E73" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="F73" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="G73" t="n">
-        <v>5.742999999999999</v>
+        <v>5.809000000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3026,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3055,10 +2965,10 @@
         <v>5.97</v>
       </c>
       <c r="F74" t="n">
-        <v>4664.2844</v>
+        <v>33</v>
       </c>
       <c r="G74" t="n">
-        <v>5.758999999999999</v>
+        <v>5.809500000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3067,16 +2977,10 @@
         <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1.047910052910053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3096,10 +3000,10 @@
         <v>5.97</v>
       </c>
       <c r="F75" t="n">
-        <v>2472</v>
+        <v>4664.2844</v>
       </c>
       <c r="G75" t="n">
-        <v>5.774499999999999</v>
+        <v>5.810000000000005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3119,28 +3023,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C76" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="D76" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E76" t="n">
-        <v>5.92</v>
+        <v>5.97</v>
       </c>
       <c r="F76" t="n">
-        <v>78763</v>
+        <v>2472</v>
       </c>
       <c r="G76" t="n">
-        <v>5.789499999999999</v>
+        <v>5.810333333333339</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3154,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.91</v>
+        <v>5.96</v>
       </c>
       <c r="C77" t="n">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="D77" t="n">
-        <v>5.91</v>
+        <v>5.96</v>
       </c>
       <c r="E77" t="n">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>78763</v>
       </c>
       <c r="G77" t="n">
-        <v>5.801999999999999</v>
+        <v>5.810333333333339</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3189,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C78" t="n">
         <v>5.9</v>
       </c>
-      <c r="C78" t="n">
-        <v>5.98</v>
-      </c>
       <c r="D78" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="E78" t="n">
         <v>5.9</v>
       </c>
       <c r="F78" t="n">
-        <v>1018865.5758</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>5.813499999999999</v>
+        <v>5.810000000000005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3224,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C79" t="n">
         <v>5.98</v>
-      </c>
-      <c r="C79" t="n">
-        <v>5.97</v>
       </c>
       <c r="D79" t="n">
         <v>5.98</v>
       </c>
       <c r="E79" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="F79" t="n">
-        <v>121</v>
+        <v>1018865.5758</v>
       </c>
       <c r="G79" t="n">
-        <v>5.821</v>
+        <v>5.811000000000005</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3259,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C80" t="n">
         <v>5.97</v>
       </c>
       <c r="D80" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E80" t="n">
         <v>5.97</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="G80" t="n">
-        <v>5.834999999999999</v>
+        <v>5.811833333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3306,10 +3210,10 @@
         <v>5.97</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G81" t="n">
-        <v>5.85</v>
+        <v>5.812833333333339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,10 +3245,10 @@
         <v>5.97</v>
       </c>
       <c r="F82" t="n">
-        <v>2577</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>5.863999999999999</v>
+        <v>5.815166666666673</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,10 +3280,10 @@
         <v>5.97</v>
       </c>
       <c r="F83" t="n">
-        <v>3244</v>
+        <v>2577</v>
       </c>
       <c r="G83" t="n">
-        <v>5.879</v>
+        <v>5.816333333333341</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3411,10 +3315,10 @@
         <v>5.97</v>
       </c>
       <c r="F84" t="n">
-        <v>3000</v>
+        <v>3244</v>
       </c>
       <c r="G84" t="n">
-        <v>5.893499999999999</v>
+        <v>5.817500000000008</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3434,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C85" t="n">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="D85" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E85" t="n">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="F85" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="G85" t="n">
-        <v>5.905999999999999</v>
+        <v>5.818666666666675</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3469,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.89</v>
+        <v>5.96</v>
       </c>
       <c r="C86" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="E86" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="F86" t="n">
-        <v>33</v>
+        <v>100000</v>
       </c>
       <c r="G86" t="n">
-        <v>5.915499999999999</v>
+        <v>5.818666666666675</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3504,10 +3408,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.97</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.88</v>
       </c>
       <c r="D87" t="n">
         <v>5.97</v>
@@ -3516,10 +3420,10 @@
         <v>5.88</v>
       </c>
       <c r="F87" t="n">
-        <v>105767.8856</v>
+        <v>33</v>
       </c>
       <c r="G87" t="n">
-        <v>5.928999999999998</v>
+        <v>5.819833333333343</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3539,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="C88" t="n">
-        <v>5.96</v>
+        <v>5.88</v>
       </c>
       <c r="D88" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E88" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F88" t="n">
-        <v>88</v>
+        <v>105767.8856</v>
       </c>
       <c r="G88" t="n">
-        <v>5.939999999999999</v>
+        <v>5.819500000000009</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3574,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E89" t="n">
         <v>5.94</v>
       </c>
-      <c r="C89" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D89" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5.9</v>
-      </c>
       <c r="F89" t="n">
-        <v>100044</v>
+        <v>88</v>
       </c>
       <c r="G89" t="n">
-        <v>5.949999999999998</v>
+        <v>5.822333333333343</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3612,19 +3516,19 @@
         <v>5.94</v>
       </c>
       <c r="C90" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="D90" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E90" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="F90" t="n">
-        <v>33</v>
+        <v>100044</v>
       </c>
       <c r="G90" t="n">
-        <v>5.952999999999999</v>
+        <v>5.823333333333342</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3644,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="C91" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="D91" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="E91" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="F91" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G91" t="n">
-        <v>5.954999999999998</v>
+        <v>5.824166666666676</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3679,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="C92" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="D92" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="E92" t="n">
-        <v>5.8</v>
+        <v>5.96</v>
       </c>
       <c r="F92" t="n">
-        <v>27620.1541</v>
+        <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>5.953499999999998</v>
+        <v>5.827000000000009</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="C93" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
       <c r="D93" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="E93" t="n">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
       <c r="F93" t="n">
-        <v>55</v>
+        <v>27620.1541</v>
       </c>
       <c r="G93" t="n">
-        <v>5.950999999999999</v>
+        <v>5.827833333333342</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3749,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="C94" t="n">
-        <v>5.91</v>
+        <v>5.89</v>
       </c>
       <c r="D94" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E94" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F94" t="n">
         <v>55</v>
       </c>
       <c r="G94" t="n">
-        <v>5.945499999999998</v>
+        <v>5.827833333333342</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3784,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="C95" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="D95" t="n">
-        <v>5.88</v>
+        <v>5.91</v>
       </c>
       <c r="E95" t="n">
-        <v>5.7</v>
+        <v>5.86</v>
       </c>
       <c r="F95" t="n">
-        <v>682935.7206</v>
+        <v>55</v>
       </c>
       <c r="G95" t="n">
-        <v>5.940999999999998</v>
+        <v>5.828000000000009</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3819,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C96" t="n">
-        <v>5.86</v>
+        <v>5.7</v>
       </c>
       <c r="D96" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E96" t="n">
-        <v>5.86</v>
+        <v>5.7</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>682935.7206</v>
       </c>
       <c r="G96" t="n">
-        <v>5.936499999999999</v>
+        <v>5.825500000000009</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3854,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C97" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="D97" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E97" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G97" t="n">
-        <v>5.932999999999999</v>
+        <v>5.825166666666676</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3889,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.74</v>
+        <v>5.84</v>
       </c>
       <c r="C98" t="n">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
       <c r="D98" t="n">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
       <c r="E98" t="n">
-        <v>5.74</v>
+        <v>5.84</v>
       </c>
       <c r="F98" t="n">
-        <v>30157.9097</v>
+        <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>5.924999999999999</v>
+        <v>5.827166666666675</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3924,10 +3828,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C99" t="n">
         <v>5.76</v>
-      </c>
-      <c r="C99" t="n">
-        <v>5.74</v>
       </c>
       <c r="D99" t="n">
         <v>5.76</v>
@@ -3936,10 +3840,10 @@
         <v>5.74</v>
       </c>
       <c r="F99" t="n">
-        <v>27894.9999</v>
+        <v>30157.9097</v>
       </c>
       <c r="G99" t="n">
-        <v>5.913999999999999</v>
+        <v>5.825166666666675</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3959,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.73</v>
+        <v>5.76</v>
       </c>
       <c r="C100" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="D100" t="n">
-        <v>5.73</v>
+        <v>5.76</v>
       </c>
       <c r="E100" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>27894.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>5.901999999999999</v>
+        <v>5.822666666666676</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3994,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.9</v>
+        <v>5.73</v>
       </c>
       <c r="C101" t="n">
-        <v>5.86</v>
+        <v>5.73</v>
       </c>
       <c r="D101" t="n">
-        <v>5.9</v>
+        <v>5.73</v>
       </c>
       <c r="E101" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="F101" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>5.898499999999999</v>
+        <v>5.823833333333342</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4029,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C102" t="n">
         <v>5.86</v>
       </c>
       <c r="D102" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="E102" t="n">
-        <v>5.86</v>
+        <v>5.74</v>
       </c>
       <c r="F102" t="n">
-        <v>151984.898</v>
+        <v>87</v>
       </c>
       <c r="G102" t="n">
-        <v>5.892999999999999</v>
+        <v>5.825833333333342</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4067,19 +3971,19 @@
         <v>5.86</v>
       </c>
       <c r="C103" t="n">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="D103" t="n">
         <v>5.86</v>
       </c>
       <c r="E103" t="n">
-        <v>5.74</v>
+        <v>5.86</v>
       </c>
       <c r="F103" t="n">
-        <v>21701.522</v>
+        <v>151984.898</v>
       </c>
       <c r="G103" t="n">
-        <v>5.887499999999999</v>
+        <v>5.827500000000009</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4099,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="C104" t="n">
         <v>5.75</v>
       </c>
       <c r="D104" t="n">
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="E104" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="F104" t="n">
-        <v>34</v>
+        <v>21701.522</v>
       </c>
       <c r="G104" t="n">
-        <v>5.885999999999999</v>
+        <v>5.825166666666676</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4134,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="C105" t="n">
-        <v>5.89</v>
+        <v>5.75</v>
       </c>
       <c r="D105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E105" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="F105" t="n">
-        <v>34738.045</v>
+        <v>34</v>
       </c>
       <c r="G105" t="n">
-        <v>5.875999999999999</v>
+        <v>5.826333333333342</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4169,10 +4073,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.9</v>
+        <v>5.76</v>
       </c>
       <c r="C106" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D106" t="n">
         <v>5.9</v>
@@ -4181,10 +4085,10 @@
         <v>5.76</v>
       </c>
       <c r="F106" t="n">
-        <v>181448.3317</v>
+        <v>34738.045</v>
       </c>
       <c r="G106" t="n">
-        <v>5.8765</v>
+        <v>5.828666666666676</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4204,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C107" t="n">
         <v>5.88</v>
       </c>
-      <c r="C107" t="n">
-        <v>5.92</v>
-      </c>
       <c r="D107" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="E107" t="n">
-        <v>5.87</v>
+        <v>5.76</v>
       </c>
       <c r="F107" t="n">
-        <v>55</v>
+        <v>181448.3317</v>
       </c>
       <c r="G107" t="n">
-        <v>5.872</v>
+        <v>5.831000000000008</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4239,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C108" t="n">
         <v>5.92</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>5.93</v>
       </c>
-      <c r="D108" t="n">
-        <v>5.94</v>
-      </c>
       <c r="E108" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="F108" t="n">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="G108" t="n">
-        <v>5.8705</v>
+        <v>5.83350000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4274,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C109" t="n">
         <v>5.93</v>
       </c>
-      <c r="C109" t="n">
-        <v>5.89</v>
-      </c>
       <c r="D109" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E109" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F109" t="n">
-        <v>20701.0348</v>
+        <v>121</v>
       </c>
       <c r="G109" t="n">
-        <v>5.87</v>
+        <v>5.83600000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4309,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="C110" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D110" t="n">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="E110" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="F110" t="n">
-        <v>100634.5263</v>
+        <v>20701.0348</v>
       </c>
       <c r="G110" t="n">
-        <v>5.8685</v>
+        <v>5.83850000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4344,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C111" t="n">
         <v>5.86</v>
       </c>
       <c r="D111" t="n">
-        <v>5.86</v>
+        <v>5.91</v>
       </c>
       <c r="E111" t="n">
         <v>5.79</v>
       </c>
       <c r="F111" t="n">
-        <v>84845.9175</v>
+        <v>100634.5263</v>
       </c>
       <c r="G111" t="n">
-        <v>5.863</v>
+        <v>5.840333333333343</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4379,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C112" t="n">
         <v>5.86</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5.8</v>
       </c>
       <c r="D112" t="n">
         <v>5.86</v>
       </c>
       <c r="E112" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="F112" t="n">
-        <v>44</v>
+        <v>84845.9175</v>
       </c>
       <c r="G112" t="n">
-        <v>5.8585</v>
+        <v>5.841666666666677</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4414,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="C113" t="n">
-        <v>5.87</v>
+        <v>5.8</v>
       </c>
       <c r="D113" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="E113" t="n">
-        <v>5.87</v>
+        <v>5.8</v>
       </c>
       <c r="F113" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G113" t="n">
-        <v>5.8565</v>
+        <v>5.843333333333344</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4449,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C114" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="D114" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="E114" t="n">
-        <v>5.79</v>
+        <v>5.87</v>
       </c>
       <c r="F114" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G114" t="n">
-        <v>5.8545</v>
+        <v>5.846833333333344</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4484,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="C115" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="D115" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="E115" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G115" t="n">
-        <v>5.853499999999999</v>
+        <v>5.850166666666678</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4519,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.81</v>
+        <v>5.86</v>
       </c>
       <c r="C116" t="n">
         <v>5.86</v>
@@ -4528,13 +4432,13 @@
         <v>5.86</v>
       </c>
       <c r="E116" t="n">
-        <v>5.81</v>
+        <v>5.86</v>
       </c>
       <c r="F116" t="n">
-        <v>79481.0221</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>5.850499999999999</v>
+        <v>5.853666666666679</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4554,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C117" t="n">
         <v>5.86</v>
       </c>
-      <c r="C117" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D117" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="E117" t="n">
         <v>5.81</v>
       </c>
       <c r="F117" t="n">
-        <v>201706.9653</v>
+        <v>79481.0221</v>
       </c>
       <c r="G117" t="n">
-        <v>5.8515</v>
+        <v>5.857000000000012</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4592,19 +4496,19 @@
         <v>5.86</v>
       </c>
       <c r="C118" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D118" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E118" t="n">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="F118" t="n">
-        <v>63697.268</v>
+        <v>201706.9653</v>
       </c>
       <c r="G118" t="n">
-        <v>5.8575</v>
+        <v>5.860666666666678</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4624,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C119" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="D119" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="E119" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F119" t="n">
-        <v>7659.2</v>
+        <v>63697.268</v>
       </c>
       <c r="G119" t="n">
-        <v>5.861499999999999</v>
+        <v>5.864333333333344</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4659,31 +4563,35 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="C120" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="D120" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="E120" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>7659.2</v>
       </c>
       <c r="G120" t="n">
-        <v>5.865999999999999</v>
+        <v>5.86450000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K120" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4706,20 +4614,28 @@
         <v>5.82</v>
       </c>
       <c r="F121" t="n">
-        <v>292.31</v>
+        <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>5.861999999999999</v>
+        <v>5.86700000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4729,32 +4645,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="C122" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="D122" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="E122" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="F122" t="n">
-        <v>32272</v>
+        <v>292.31</v>
       </c>
       <c r="G122" t="n">
-        <v>5.860999999999999</v>
+        <v>5.867833333333343</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K122" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="C123" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="D123" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="E123" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="F123" t="n">
-        <v>177629.9128</v>
+        <v>32272</v>
       </c>
       <c r="G123" t="n">
-        <v>5.863499999999999</v>
+        <v>5.870666666666677</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4799,7 +4723,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.93</v>
+        <v>5.91</v>
       </c>
       <c r="C124" t="n">
         <v>5.93</v>
@@ -4808,22 +4732,26 @@
         <v>5.93</v>
       </c>
       <c r="E124" t="n">
-        <v>5.93</v>
+        <v>5.91</v>
       </c>
       <c r="F124" t="n">
-        <v>27097.9936</v>
+        <v>177629.9128</v>
       </c>
       <c r="G124" t="n">
-        <v>5.863</v>
+        <v>5.874833333333344</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K124" t="n">
+        <v>5.85</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4834,22 +4762,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C125" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="D125" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="E125" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F125" t="n">
-        <v>199100.3919</v>
+        <v>27097.9936</v>
       </c>
       <c r="G125" t="n">
-        <v>5.8725</v>
+        <v>5.878166666666677</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4858,8 +4786,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4881,10 +4815,10 @@
         <v>5.95</v>
       </c>
       <c r="F126" t="n">
-        <v>44758</v>
+        <v>199100.3919</v>
       </c>
       <c r="G126" t="n">
-        <v>5.874999999999999</v>
+        <v>5.882833333333343</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4893,8 +4827,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4904,22 +4844,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="C127" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="D127" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="E127" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F127" t="n">
-        <v>2897.66</v>
+        <v>44758</v>
       </c>
       <c r="G127" t="n">
-        <v>5.8775</v>
+        <v>5.887166666666676</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4939,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="C128" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="D128" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="E128" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="F128" t="n">
-        <v>7243.255</v>
+        <v>2897.66</v>
       </c>
       <c r="G128" t="n">
-        <v>5.879499999999998</v>
+        <v>5.890500000000009</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4974,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="C129" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="D129" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="E129" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="F129" t="n">
-        <v>7615.39</v>
+        <v>7243.255</v>
       </c>
       <c r="G129" t="n">
-        <v>5.879499999999998</v>
+        <v>5.894166666666676</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5012,19 +4952,19 @@
         <v>5.93</v>
       </c>
       <c r="C130" t="n">
-        <v>5.82</v>
+        <v>5.93</v>
       </c>
       <c r="D130" t="n">
         <v>5.93</v>
       </c>
       <c r="E130" t="n">
-        <v>5.82</v>
+        <v>5.93</v>
       </c>
       <c r="F130" t="n">
-        <v>260664.8811</v>
+        <v>7615.39</v>
       </c>
       <c r="G130" t="n">
-        <v>5.8805</v>
+        <v>5.895000000000009</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5044,22 +4984,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.87</v>
+        <v>5.93</v>
       </c>
       <c r="C131" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="D131" t="n">
-        <v>5.87</v>
+        <v>5.93</v>
       </c>
       <c r="E131" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="F131" t="n">
-        <v>169.8244</v>
+        <v>260664.8811</v>
       </c>
       <c r="G131" t="n">
-        <v>5.8815</v>
+        <v>5.893333333333342</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5079,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="C132" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="D132" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="E132" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="F132" t="n">
-        <v>18</v>
+        <v>169.8244</v>
       </c>
       <c r="G132" t="n">
-        <v>5.8845</v>
+        <v>5.891500000000009</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5114,22 +5054,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="C133" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="D133" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E133" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="F133" t="n">
-        <v>14189.33</v>
+        <v>18</v>
       </c>
       <c r="G133" t="n">
-        <v>5.884</v>
+        <v>5.890500000000008</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5152,19 +5092,19 @@
         <v>5.87</v>
       </c>
       <c r="C134" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D134" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="E134" t="n">
         <v>5.87</v>
       </c>
       <c r="F134" t="n">
-        <v>21.2671</v>
+        <v>14189.33</v>
       </c>
       <c r="G134" t="n">
-        <v>5.886500000000001</v>
+        <v>5.889500000000009</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5184,22 +5124,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.8</v>
+        <v>5.87</v>
       </c>
       <c r="C135" t="n">
-        <v>5.74</v>
+        <v>5.87</v>
       </c>
       <c r="D135" t="n">
-        <v>5.8</v>
+        <v>5.87</v>
       </c>
       <c r="E135" t="n">
-        <v>5.74</v>
+        <v>5.87</v>
       </c>
       <c r="F135" t="n">
-        <v>180812.4179</v>
+        <v>21.2671</v>
       </c>
       <c r="G135" t="n">
-        <v>5.883500000000001</v>
+        <v>5.887833333333342</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5219,22 +5159,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="C136" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="D136" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="E136" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="F136" t="n">
-        <v>23052.6099</v>
+        <v>180812.4179</v>
       </c>
       <c r="G136" t="n">
-        <v>5.879500000000001</v>
+        <v>5.884000000000008</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5254,22 +5194,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="C137" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="D137" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E137" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="F137" t="n">
-        <v>22770</v>
+        <v>23052.6099</v>
       </c>
       <c r="G137" t="n">
-        <v>5.873500000000001</v>
+        <v>5.880833333333341</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5289,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="C138" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="D138" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="E138" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="F138" t="n">
-        <v>174780.2785</v>
+        <v>22770</v>
       </c>
       <c r="G138" t="n">
-        <v>5.867000000000001</v>
+        <v>5.878166666666675</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5324,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C139" t="n">
         <v>5.72</v>
       </c>
       <c r="D139" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E139" t="n">
         <v>5.72</v>
       </c>
       <c r="F139" t="n">
-        <v>17865.2809</v>
+        <v>174780.2785</v>
       </c>
       <c r="G139" t="n">
-        <v>5.861000000000001</v>
+        <v>5.873833333333342</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5362,19 +5302,19 @@
         <v>5.72</v>
       </c>
       <c r="C140" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="D140" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="E140" t="n">
         <v>5.72</v>
       </c>
       <c r="F140" t="n">
-        <v>2136</v>
+        <v>17865.2809</v>
       </c>
       <c r="G140" t="n">
-        <v>5.856</v>
+        <v>5.869666666666675</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5394,22 +5334,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="C141" t="n">
-        <v>5.73</v>
+        <v>5.78</v>
       </c>
       <c r="D141" t="n">
-        <v>5.73</v>
+        <v>5.78</v>
       </c>
       <c r="E141" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="F141" t="n">
-        <v>8695.652099999999</v>
+        <v>2136</v>
       </c>
       <c r="G141" t="n">
-        <v>5.8515</v>
+        <v>5.866500000000007</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5429,22 +5369,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C142" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D142" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E142" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F142" t="n">
-        <v>40000</v>
+        <v>8695.652099999999</v>
       </c>
       <c r="G142" t="n">
-        <v>5.845499999999999</v>
+        <v>5.862500000000008</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5464,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="C143" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="D143" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="E143" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="F143" t="n">
-        <v>22336.3885</v>
+        <v>40000</v>
       </c>
       <c r="G143" t="n">
-        <v>5.8365</v>
+        <v>5.85833333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5499,22 +5439,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C144" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D144" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E144" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F144" t="n">
-        <v>50137.966</v>
+        <v>22336.3885</v>
       </c>
       <c r="G144" t="n">
-        <v>5.826000000000001</v>
+        <v>5.854333333333341</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5534,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="C145" t="n">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="D145" t="n">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="E145" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="F145" t="n">
-        <v>44495.8696</v>
+        <v>50137.966</v>
       </c>
       <c r="G145" t="n">
-        <v>5.815</v>
+        <v>5.850166666666675</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5569,7 +5509,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="C146" t="n">
         <v>5.76</v>
@@ -5578,13 +5518,13 @@
         <v>5.76</v>
       </c>
       <c r="E146" t="n">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="F146" t="n">
-        <v>13000</v>
+        <v>44495.8696</v>
       </c>
       <c r="G146" t="n">
-        <v>5.8055</v>
+        <v>5.847833333333341</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5607,19 +5547,19 @@
         <v>5.76</v>
       </c>
       <c r="C147" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="D147" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="E147" t="n">
         <v>5.76</v>
       </c>
       <c r="F147" t="n">
-        <v>2157.0317</v>
+        <v>13000</v>
       </c>
       <c r="G147" t="n">
-        <v>5.797000000000001</v>
+        <v>5.84433333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5639,22 +5579,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="C148" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="D148" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="E148" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="F148" t="n">
-        <v>5691.46</v>
+        <v>2157.0317</v>
       </c>
       <c r="G148" t="n">
-        <v>5.786000000000001</v>
+        <v>5.84333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5674,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="C149" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="D149" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="E149" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="F149" t="n">
-        <v>189.003436426</v>
+        <v>5691.46</v>
       </c>
       <c r="G149" t="n">
-        <v>5.780500000000001</v>
+        <v>5.839666666666674</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5709,22 +5649,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="C150" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="D150" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="E150" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="F150" t="n">
-        <v>60952.9737</v>
+        <v>189.003436426</v>
       </c>
       <c r="G150" t="n">
-        <v>5.771500000000001</v>
+        <v>5.837500000000007</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5744,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C151" t="n">
         <v>5.74</v>
       </c>
-      <c r="C151" t="n">
-        <v>5.72</v>
-      </c>
       <c r="D151" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E151" t="n">
         <v>5.74</v>
       </c>
-      <c r="E151" t="n">
-        <v>5.72</v>
-      </c>
       <c r="F151" t="n">
-        <v>272100.97</v>
+        <v>60952.9737</v>
       </c>
       <c r="G151" t="n">
-        <v>5.765</v>
+        <v>5.834500000000007</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5779,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C152" t="n">
         <v>5.72</v>
       </c>
-      <c r="C152" t="n">
-        <v>5.7</v>
-      </c>
       <c r="D152" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E152" t="n">
         <v>5.72</v>
       </c>
-      <c r="E152" t="n">
-        <v>5.7</v>
-      </c>
       <c r="F152" t="n">
-        <v>387453.2845</v>
+        <v>272100.97</v>
       </c>
       <c r="G152" t="n">
-        <v>5.755</v>
+        <v>5.830500000000009</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5814,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C153" t="n">
         <v>5.7</v>
       </c>
-      <c r="C153" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D153" t="n">
-        <v>5.81</v>
+        <v>5.72</v>
       </c>
       <c r="E153" t="n">
         <v>5.7</v>
       </c>
       <c r="F153" t="n">
-        <v>348218.8032</v>
+        <v>387453.2845</v>
       </c>
       <c r="G153" t="n">
-        <v>5.746499999999999</v>
+        <v>5.826666666666674</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5849,22 +5789,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="C154" t="n">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="D154" t="n">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="E154" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="F154" t="n">
-        <v>6808.2717</v>
+        <v>348218.8032</v>
       </c>
       <c r="G154" t="n">
-        <v>5.740499999999999</v>
+        <v>5.825333333333342</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5884,22 +5824,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="C155" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="D155" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="E155" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>6808.2717</v>
       </c>
       <c r="G155" t="n">
-        <v>5.74</v>
+        <v>5.822666666666675</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5922,19 +5862,19 @@
         <v>5.79</v>
       </c>
       <c r="C156" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="D156" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="E156" t="n">
         <v>5.79</v>
       </c>
       <c r="F156" t="n">
-        <v>106880.4359</v>
+        <v>500</v>
       </c>
       <c r="G156" t="n">
-        <v>5.743</v>
+        <v>5.824166666666675</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5954,7 +5894,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="C157" t="n">
         <v>5.81</v>
@@ -5963,13 +5903,13 @@
         <v>5.81</v>
       </c>
       <c r="E157" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F157" t="n">
-        <v>21883.2185</v>
+        <v>106880.4359</v>
       </c>
       <c r="G157" t="n">
-        <v>5.7465</v>
+        <v>5.823333333333341</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6001,10 +5941,10 @@
         <v>5.81</v>
       </c>
       <c r="F158" t="n">
-        <v>96132.35799999999</v>
+        <v>21883.2185</v>
       </c>
       <c r="G158" t="n">
-        <v>5.750500000000001</v>
+        <v>5.822833333333342</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6036,10 +5976,10 @@
         <v>5.81</v>
       </c>
       <c r="F159" t="n">
-        <v>54</v>
+        <v>96132.35799999999</v>
       </c>
       <c r="G159" t="n">
-        <v>5.755000000000001</v>
+        <v>5.823666666666676</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6071,10 +6011,10 @@
         <v>5.81</v>
       </c>
       <c r="F160" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G160" t="n">
-        <v>5.759500000000001</v>
+        <v>5.824833333333342</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6094,22 +6034,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="C161" t="n">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="D161" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="E161" t="n">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="F161" t="n">
-        <v>301487.369</v>
+        <v>36</v>
       </c>
       <c r="G161" t="n">
-        <v>5.762</v>
+        <v>5.826166666666675</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6129,22 +6069,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="C162" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="D162" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="E162" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="F162" t="n">
-        <v>10</v>
+        <v>301487.369</v>
       </c>
       <c r="G162" t="n">
-        <v>5.766</v>
+        <v>5.824333333333342</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6164,22 +6104,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="C163" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="D163" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="E163" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F163" t="n">
-        <v>1065272.562</v>
+        <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>5.7675</v>
+        <v>5.823333333333341</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6199,35 +6139,31 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="C164" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="D164" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="E164" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="F164" t="n">
-        <v>10993.4256</v>
+        <v>1065272.562</v>
       </c>
       <c r="G164" t="n">
-        <v>5.7705</v>
+        <v>5.823333333333341</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
@@ -6238,40 +6174,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="C165" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="D165" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="E165" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="F165" t="n">
-        <v>394226.6966</v>
+        <v>10993.4256</v>
       </c>
       <c r="G165" t="n">
-        <v>5.771500000000001</v>
+        <v>5.823833333333341</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6293,10 +6221,10 @@
         <v>5.75</v>
       </c>
       <c r="F166" t="n">
-        <v>95504.76579999999</v>
+        <v>394226.6966</v>
       </c>
       <c r="G166" t="n">
-        <v>5.771</v>
+        <v>5.821500000000008</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6305,14 +6233,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6322,22 +6244,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="C167" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="D167" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="E167" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>95504.76579999999</v>
       </c>
       <c r="G167" t="n">
-        <v>5.772</v>
+        <v>5.819333333333342</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6369,10 +6291,10 @@
         <v>5.78</v>
       </c>
       <c r="F168" t="n">
-        <v>478.0276</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>5.774</v>
+        <v>5.817000000000007</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6392,22 +6314,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="C169" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="D169" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="E169" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F169" t="n">
-        <v>3979.7542</v>
+        <v>478.0276</v>
       </c>
       <c r="G169" t="n">
-        <v>5.771500000000001</v>
+        <v>5.814500000000007</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6427,22 +6349,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="C170" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="D170" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="E170" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="F170" t="n">
-        <v>35731.9516</v>
+        <v>3979.7542</v>
       </c>
       <c r="G170" t="n">
-        <v>5.7735</v>
+        <v>5.812500000000006</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6474,10 +6396,10 @@
         <v>5.79</v>
       </c>
       <c r="F171" t="n">
-        <v>93747.0379</v>
+        <v>35731.9516</v>
       </c>
       <c r="G171" t="n">
-        <v>5.776000000000002</v>
+        <v>5.81133333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6497,22 +6419,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C172" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="D172" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="E172" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="F172" t="n">
-        <v>12493.6206</v>
+        <v>93747.0379</v>
       </c>
       <c r="G172" t="n">
-        <v>5.780000000000001</v>
+        <v>5.810166666666674</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6544,10 +6466,10 @@
         <v>5.8</v>
       </c>
       <c r="F173" t="n">
-        <v>90</v>
+        <v>12493.6206</v>
       </c>
       <c r="G173" t="n">
-        <v>5.785000000000001</v>
+        <v>5.810166666666674</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6579,10 +6501,10 @@
         <v>5.8</v>
       </c>
       <c r="F174" t="n">
-        <v>286.551724137</v>
+        <v>90</v>
       </c>
       <c r="G174" t="n">
-        <v>5.787500000000001</v>
+        <v>5.809000000000007</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6602,22 +6524,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="C175" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="D175" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="E175" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F175" t="n">
-        <v>54041.1453</v>
+        <v>286.551724137</v>
       </c>
       <c r="G175" t="n">
-        <v>5.786</v>
+        <v>5.808166666666674</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6637,22 +6559,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="C176" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="D176" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="E176" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="F176" t="n">
-        <v>18</v>
+        <v>54041.1453</v>
       </c>
       <c r="G176" t="n">
-        <v>5.786</v>
+        <v>5.80633333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6684,10 +6606,10 @@
         <v>5.79</v>
       </c>
       <c r="F177" t="n">
-        <v>36256.0306</v>
+        <v>18</v>
       </c>
       <c r="G177" t="n">
-        <v>5.785000000000001</v>
+        <v>5.805166666666674</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6702,6 +6624,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F178" t="n">
+        <v>36256.0306</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.803666666666674</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>28</v>
       </c>
       <c r="G2" t="n">
+        <v>5.933333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.96683333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>5.940666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.966666666666673</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>52</v>
       </c>
       <c r="G4" t="n">
+        <v>5.947333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.966500000000007</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>43</v>
       </c>
       <c r="G5" t="n">
+        <v>5.946666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.966500000000007</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
+        <v>5.940666666666669</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.965166666666674</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>53577.0342</v>
       </c>
       <c r="G7" t="n">
+        <v>5.934000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.961833333333341</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>74509.9485</v>
       </c>
       <c r="G8" t="n">
+        <v>5.926000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.958166666666673</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>20</v>
       </c>
       <c r="G9" t="n">
+        <v>5.926000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.958000000000007</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>33</v>
       </c>
       <c r="G10" t="n">
+        <v>5.924666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.956000000000007</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>5.924666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.95433333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>111121</v>
       </c>
       <c r="G12" t="n">
+        <v>5.924666666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.952500000000006</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1551.9222</v>
       </c>
       <c r="G13" t="n">
+        <v>5.918666666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.949166666666673</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>20</v>
       </c>
       <c r="G14" t="n">
+        <v>5.919333333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.947333333333339</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5240</v>
       </c>
       <c r="G15" t="n">
+        <v>5.918000000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.945500000000006</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>5220</v>
       </c>
       <c r="G16" t="n">
+        <v>5.920000000000002</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.943833333333339</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>18343.2767</v>
       </c>
       <c r="G17" t="n">
+        <v>5.918000000000002</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.941666666666673</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1448.7297</v>
       </c>
       <c r="G18" t="n">
+        <v>5.916000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.939500000000006</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
+        <v>5.914000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.937333333333339</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
+        <v>5.912000000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.935166666666673</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1102320.7851</v>
       </c>
       <c r="G21" t="n">
+        <v>5.914666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.932833333333339</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>94879.52650000001</v>
       </c>
       <c r="G22" t="n">
+        <v>5.913333333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.929166666666672</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>5.918000000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.927833333333338</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>5.914666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.926666666666671</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>5.912666666666668</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.925333333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>20</v>
       </c>
       <c r="G26" t="n">
+        <v>5.909333333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.923000000000003</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>149698.0474</v>
       </c>
       <c r="G27" t="n">
+        <v>5.906666666666669</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.921666666666669</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
+        <v>5.910000000000003</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.920666666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10000</v>
       </c>
       <c r="G29" t="n">
+        <v>5.900000000000004</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.917166666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10010</v>
       </c>
       <c r="G30" t="n">
+        <v>5.896666666666671</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.918500000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>20</v>
       </c>
       <c r="G31" t="n">
+        <v>5.891333333333337</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.916666666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>28</v>
       </c>
       <c r="G32" t="n">
+        <v>5.882666666666671</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.913666666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>4313.4624</v>
       </c>
       <c r="G33" t="n">
+        <v>5.880000000000004</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.912000000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>5.878000000000004</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.910666666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>40</v>
       </c>
       <c r="G35" t="n">
+        <v>5.87666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.912666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>189664.7938</v>
       </c>
       <c r="G36" t="n">
+        <v>5.872666666666671</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.910000000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>5.876000000000004</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.911500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>349512.3483</v>
       </c>
       <c r="G38" t="n">
+        <v>5.864000000000003</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.907000000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1461512.9057</v>
       </c>
       <c r="G39" t="n">
+        <v>5.862666666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.905166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>18</v>
       </c>
       <c r="G40" t="n">
+        <v>5.862000000000003</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.9035</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
+        <v>5.846000000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.898000000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>40</v>
       </c>
       <c r="G42" t="n">
+        <v>5.835333333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.896333333333335</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
+        <v>5.826000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.895000000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>18</v>
       </c>
       <c r="G44" t="n">
+        <v>5.832666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.893666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
+        <v>5.818666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.888666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>75128.3759</v>
       </c>
       <c r="G46" t="n">
+        <v>5.810666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.887</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>8</v>
       </c>
       <c r="G47" t="n">
+        <v>5.807333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.885333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>141</v>
       </c>
       <c r="G48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.884166666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>144</v>
       </c>
       <c r="G49" t="n">
+        <v>5.792666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.883</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>39980.6782</v>
       </c>
       <c r="G50" t="n">
+        <v>5.781999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.879333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
+        <v>5.775333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.875833333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>77</v>
       </c>
       <c r="G52" t="n">
+        <v>5.768666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.873000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>27206.3859</v>
       </c>
       <c r="G53" t="n">
+        <v>5.767333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.868833333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>52396.308</v>
       </c>
       <c r="G54" t="n">
+        <v>5.752666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.864000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>10000</v>
       </c>
       <c r="G55" t="n">
+        <v>5.736666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.859000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>200000</v>
       </c>
       <c r="G56" t="n">
+        <v>5.736000000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.854000000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>250000</v>
       </c>
       <c r="G57" t="n">
+        <v>5.730666666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.849333333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2263.6041</v>
       </c>
       <c r="G58" t="n">
+        <v>5.724000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.844666666666669</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
+        <v>5.709333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.840333333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>10.6346</v>
       </c>
       <c r="G60" t="n">
+        <v>5.719333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.838166666666669</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>103686</v>
       </c>
       <c r="G61" t="n">
+        <v>5.714000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.834000000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1010</v>
       </c>
       <c r="G62" t="n">
+        <v>5.716000000000002</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.831000000000002</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>94</v>
       </c>
       <c r="G63" t="n">
+        <v>5.710000000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.826500000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1549.2283</v>
       </c>
       <c r="G64" t="n">
+        <v>5.703333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.822000000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>55</v>
       </c>
       <c r="G65" t="n">
+        <v>5.702666666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.818333333333337</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,27 @@
         <v>20011</v>
       </c>
       <c r="G66" t="n">
+        <v>5.698000000000002</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.81516666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5.73</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2929,27 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
+        <v>5.692666666666669</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.81266666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5.68</v>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2973,27 @@
         <v>40018</v>
       </c>
       <c r="G68" t="n">
+        <v>5.694666666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.811000000000003</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5.7</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3017,27 @@
         <v>78600</v>
       </c>
       <c r="G69" t="n">
+        <v>5.700000000000002</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.807500000000004</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5.73</v>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3061,25 @@
         <v>75571</v>
       </c>
       <c r="G70" t="n">
+        <v>5.715333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.80666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3103,25 @@
         <v>311593.2138</v>
       </c>
       <c r="G71" t="n">
+        <v>5.733333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.80616666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3145,25 @@
         <v>1041574.9936</v>
       </c>
       <c r="G72" t="n">
+        <v>5.754666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.806833333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3187,25 @@
         <v>119</v>
       </c>
       <c r="G73" t="n">
+        <v>5.776000000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.809000000000004</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3229,25 @@
         <v>33</v>
       </c>
       <c r="G74" t="n">
+        <v>5.796000000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.809500000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3271,25 @@
         <v>4664.2844</v>
       </c>
       <c r="G75" t="n">
+        <v>5.805333333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.810000000000005</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3313,25 @@
         <v>2472</v>
       </c>
       <c r="G76" t="n">
+        <v>5.825333333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.810333333333339</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3355,25 @@
         <v>78763</v>
       </c>
       <c r="G77" t="n">
+        <v>5.835333333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.810333333333339</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3397,25 @@
         <v>22</v>
       </c>
       <c r="G78" t="n">
+        <v>5.850000000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.810000000000005</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3439,25 @@
         <v>1018865.5758</v>
       </c>
       <c r="G79" t="n">
+        <v>5.870000000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.811000000000005</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3481,25 @@
         <v>121</v>
       </c>
       <c r="G80" t="n">
+        <v>5.886000000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.811833333333339</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3523,25 @@
         <v>33</v>
       </c>
       <c r="G81" t="n">
+        <v>5.905333333333336</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.812833333333339</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3565,25 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
+        <v>5.923333333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.815166666666673</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3607,25 @@
         <v>2577</v>
       </c>
       <c r="G83" t="n">
+        <v>5.939333333333336</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.816333333333341</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3649,25 @@
         <v>3244</v>
       </c>
       <c r="G84" t="n">
+        <v>5.954666666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.817500000000008</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3691,25 @@
         <v>3000</v>
       </c>
       <c r="G85" t="n">
+        <v>5.960666666666669</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.818666666666675</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3733,25 @@
         <v>100000</v>
       </c>
       <c r="G86" t="n">
+        <v>5.959333333333336</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.818666666666675</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3775,25 @@
         <v>33</v>
       </c>
       <c r="G87" t="n">
+        <v>5.958666666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.819833333333343</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3817,25 @@
         <v>105767.8856</v>
       </c>
       <c r="G88" t="n">
+        <v>5.952000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.819500000000009</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3859,25 @@
         <v>88</v>
       </c>
       <c r="G89" t="n">
+        <v>5.951333333333335</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.822333333333343</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,20 +3901,25 @@
         <v>100044</v>
       </c>
       <c r="G90" t="n">
+        <v>5.950000000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.823333333333342</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3563,18 +3941,21 @@
         <v>33</v>
       </c>
       <c r="G91" t="n">
+        <v>5.946666666666669</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.824166666666676</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3979,21 @@
         <v>55</v>
       </c>
       <c r="G92" t="n">
+        <v>5.949333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.827000000000009</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4017,21 @@
         <v>27620.1541</v>
       </c>
       <c r="G93" t="n">
+        <v>5.951333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.827833333333342</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4055,21 @@
         <v>55</v>
       </c>
       <c r="G94" t="n">
+        <v>5.945333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.827833333333342</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4093,21 @@
         <v>55</v>
       </c>
       <c r="G95" t="n">
+        <v>5.941333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.828000000000009</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4131,21 @@
         <v>682935.7206</v>
       </c>
       <c r="G96" t="n">
+        <v>5.923333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.825500000000009</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4169,21 @@
         <v>22</v>
       </c>
       <c r="G97" t="n">
+        <v>5.916</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.825166666666676</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4207,21 @@
         <v>11</v>
       </c>
       <c r="G98" t="n">
+        <v>5.907333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.827166666666675</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4245,21 @@
         <v>30157.9097</v>
       </c>
       <c r="G99" t="n">
+        <v>5.893333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.825166666666675</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4283,21 @@
         <v>27894.9999</v>
       </c>
       <c r="G100" t="n">
+        <v>5.878000000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.822666666666676</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4321,21 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>5.866666666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.823833333333342</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4359,21 @@
         <v>87</v>
       </c>
       <c r="G102" t="n">
+        <v>5.859333333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.825833333333342</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4397,21 @@
         <v>151984.898</v>
       </c>
       <c r="G103" t="n">
+        <v>5.858000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.827500000000009</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4435,21 @@
         <v>21701.522</v>
       </c>
       <c r="G104" t="n">
+        <v>5.844000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.825166666666676</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4473,21 @@
         <v>34</v>
       </c>
       <c r="G105" t="n">
+        <v>5.830666666666668</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.826333333333342</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4511,21 @@
         <v>34738.045</v>
       </c>
       <c r="G106" t="n">
+        <v>5.828666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.828666666666676</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4549,21 @@
         <v>181448.3317</v>
       </c>
       <c r="G107" t="n">
+        <v>5.823333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.831000000000008</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4587,21 @@
         <v>55</v>
       </c>
       <c r="G108" t="n">
+        <v>5.822666666666668</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.83350000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4625,21 @@
         <v>121</v>
       </c>
       <c r="G109" t="n">
+        <v>5.825333333333336</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.83600000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4663,21 @@
         <v>20701.0348</v>
       </c>
       <c r="G110" t="n">
+        <v>5.824000000000003</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.83850000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4701,21 @@
         <v>100634.5263</v>
       </c>
       <c r="G111" t="n">
+        <v>5.834666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.840333333333343</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4739,21 @@
         <v>84845.9175</v>
       </c>
       <c r="G112" t="n">
+        <v>5.834666666666669</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.841666666666677</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4777,21 @@
         <v>44</v>
       </c>
       <c r="G113" t="n">
+        <v>5.832000000000003</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.843333333333344</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4815,21 @@
         <v>21</v>
       </c>
       <c r="G114" t="n">
+        <v>5.839333333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.846833333333344</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4853,21 @@
         <v>44</v>
       </c>
       <c r="G115" t="n">
+        <v>5.846666666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.850166666666678</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4891,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
+        <v>5.855333333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.853666666666679</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4929,21 @@
         <v>79481.0221</v>
       </c>
       <c r="G117" t="n">
+        <v>5.855333333333335</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.857000000000012</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4967,21 @@
         <v>201706.9653</v>
       </c>
       <c r="G118" t="n">
+        <v>5.856666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.860666666666678</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5005,21 @@
         <v>63697.268</v>
       </c>
       <c r="G119" t="n">
+        <v>5.866000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.864333333333344</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,22 +5043,21 @@
         <v>7659.2</v>
       </c>
       <c r="G120" t="n">
+        <v>5.872000000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.86450000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4617,26 +5081,21 @@
         <v>2000</v>
       </c>
       <c r="G121" t="n">
+        <v>5.867333333333336</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.86700000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,26 +5119,21 @@
         <v>292.31</v>
       </c>
       <c r="G122" t="n">
+        <v>5.863333333333336</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.867833333333343</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5157,21 @@
         <v>32272</v>
       </c>
       <c r="G123" t="n">
+        <v>5.858666666666669</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.870666666666677</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,22 +5195,21 @@
         <v>177629.9128</v>
       </c>
       <c r="G124" t="n">
+        <v>5.858666666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.874833333333344</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="K124" t="n">
-        <v>5.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,24 +5233,21 @@
         <v>27097.9936</v>
       </c>
       <c r="G125" t="n">
+        <v>5.861333333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.878166666666677</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,24 +5271,21 @@
         <v>199100.3919</v>
       </c>
       <c r="G126" t="n">
+        <v>5.868000000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.882833333333343</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5309,21 @@
         <v>44758</v>
       </c>
       <c r="G127" t="n">
+        <v>5.874666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.887166666666676</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5347,21 @@
         <v>2897.66</v>
       </c>
       <c r="G128" t="n">
+        <v>5.883333333333335</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.890500000000009</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5385,21 @@
         <v>7243.255</v>
       </c>
       <c r="G129" t="n">
+        <v>5.889333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.894166666666676</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5423,21 @@
         <v>7615.39</v>
       </c>
       <c r="G130" t="n">
+        <v>5.894666666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.895000000000009</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5461,21 @@
         <v>260664.8811</v>
       </c>
       <c r="G131" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.893333333333342</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5499,21 @@
         <v>169.8244</v>
       </c>
       <c r="G132" t="n">
+        <v>5.892666666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.891500000000009</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5537,21 @@
         <v>18</v>
       </c>
       <c r="G133" t="n">
+        <v>5.895333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.890500000000008</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5575,21 @@
         <v>14189.33</v>
       </c>
       <c r="G134" t="n">
+        <v>5.896666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.889500000000009</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5613,21 @@
         <v>21.2671</v>
       </c>
       <c r="G135" t="n">
+        <v>5.898666666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.887833333333342</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5651,21 @@
         <v>180812.4179</v>
       </c>
       <c r="G136" t="n">
+        <v>5.893333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.884000000000008</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5689,21 @@
         <v>23052.6099</v>
       </c>
       <c r="G137" t="n">
+        <v>5.887333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.880833333333341</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5727,21 @@
         <v>22770</v>
       </c>
       <c r="G138" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.878166666666675</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5765,21 @@
         <v>174780.2785</v>
       </c>
       <c r="G139" t="n">
+        <v>5.866000000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.873833333333342</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5803,21 @@
         <v>17865.2809</v>
       </c>
       <c r="G140" t="n">
+        <v>5.852</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.869666666666675</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5841,27 @@
         <v>2136</v>
       </c>
       <c r="G141" t="n">
+        <v>5.840000000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.866500000000007</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>5.72</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +5885,25 @@
         <v>8695.652099999999</v>
       </c>
       <c r="G142" t="n">
+        <v>5.824666666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.862500000000008</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +5927,27 @@
         <v>40000</v>
       </c>
       <c r="G143" t="n">
+        <v>5.810666666666668</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.85833333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>5.73</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +5971,27 @@
         <v>22336.3885</v>
       </c>
       <c r="G144" t="n">
+        <v>5.795333333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.854333333333341</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>5.72</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +6015,27 @@
         <v>50137.966</v>
       </c>
       <c r="G145" t="n">
+        <v>5.781333333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.850166666666675</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>5.73</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6059,27 @@
         <v>44495.8696</v>
       </c>
       <c r="G146" t="n">
+        <v>5.777333333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.847833333333341</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>5.72</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6103,27 @@
         <v>13000</v>
       </c>
       <c r="G147" t="n">
+        <v>5.770000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.84433333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>5.76</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6147,27 @@
         <v>2157.0317</v>
       </c>
       <c r="G148" t="n">
+        <v>5.763333333333335</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.84333333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>5.76</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6191,27 @@
         <v>5691.46</v>
       </c>
       <c r="G149" t="n">
+        <v>5.752000000000002</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.839666666666674</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>5.82</v>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6235,25 @@
         <v>189.003436426</v>
       </c>
       <c r="G150" t="n">
+        <v>5.748666666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.837500000000007</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6277,25 @@
         <v>60952.9737</v>
       </c>
       <c r="G151" t="n">
+        <v>5.748666666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.834500000000007</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6319,27 @@
         <v>272100.97</v>
       </c>
       <c r="G152" t="n">
+        <v>5.748000000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.830500000000009</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>5.74</v>
+      </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6363,27 @@
         <v>387453.2845</v>
       </c>
       <c r="G153" t="n">
+        <v>5.745333333333335</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.826666666666674</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>5.72</v>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6407,27 @@
         <v>348218.8032</v>
       </c>
       <c r="G154" t="n">
+        <v>5.751333333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.825333333333342</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>5.7</v>
+      </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6451,27 @@
         <v>6808.2717</v>
       </c>
       <c r="G155" t="n">
+        <v>5.753333333333335</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.822666666666675</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>5.81</v>
+      </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6495,27 @@
         <v>500</v>
       </c>
       <c r="G156" t="n">
+        <v>5.754000000000002</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.824166666666675</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>5.75</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6539,27 @@
         <v>106880.4359</v>
       </c>
       <c r="G157" t="n">
+        <v>5.759333333333335</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.823333333333341</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6583,25 @@
         <v>21883.2185</v>
       </c>
       <c r="G158" t="n">
+        <v>5.765333333333335</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.822833333333342</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6625,25 @@
         <v>96132.35799999999</v>
       </c>
       <c r="G159" t="n">
+        <v>5.770666666666669</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.823666666666676</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6667,25 @@
         <v>54</v>
       </c>
       <c r="G160" t="n">
+        <v>5.776666666666669</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.824833333333342</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6709,25 @@
         <v>36</v>
       </c>
       <c r="G161" t="n">
+        <v>5.780000000000002</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.826166666666675</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6751,25 @@
         <v>301487.369</v>
       </c>
       <c r="G162" t="n">
+        <v>5.779333333333335</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.824333333333342</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6793,25 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
+        <v>5.778000000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.823333333333341</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6835,27 @@
         <v>1065272.562</v>
       </c>
       <c r="G164" t="n">
+        <v>5.778666666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.823333333333341</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>5.8</v>
+      </c>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6879,25 @@
         <v>10993.4256</v>
       </c>
       <c r="G165" t="n">
+        <v>5.776000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.823833333333341</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6921,27 @@
         <v>394226.6966</v>
       </c>
       <c r="G166" t="n">
+        <v>5.776666666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.821500000000008</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>5.78</v>
+      </c>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +6965,27 @@
         <v>95504.76579999999</v>
       </c>
       <c r="G167" t="n">
+        <v>5.778666666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.819333333333342</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>5.75</v>
+      </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +7009,27 @@
         <v>10</v>
       </c>
       <c r="G168" t="n">
+        <v>5.784000000000002</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.817000000000007</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>5.75</v>
+      </c>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7053,27 @@
         <v>478.0276</v>
       </c>
       <c r="G169" t="n">
+        <v>5.782000000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.814500000000007</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>5.78</v>
+      </c>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7097,27 @@
         <v>3979.7542</v>
       </c>
       <c r="G170" t="n">
+        <v>5.783333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.812500000000006</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5.78</v>
+      </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7141,25 @@
         <v>35731.9516</v>
       </c>
       <c r="G171" t="n">
+        <v>5.783333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.81133333333334</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7183,25 @@
         <v>93747.0379</v>
       </c>
       <c r="G172" t="n">
+        <v>5.782000000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.810166666666674</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7225,25 @@
         <v>12493.6206</v>
       </c>
       <c r="G173" t="n">
+        <v>5.781333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.810166666666674</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7267,25 @@
         <v>90</v>
       </c>
       <c r="G174" t="n">
+        <v>5.780666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.809000000000007</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7309,25 @@
         <v>286.551724137</v>
       </c>
       <c r="G175" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.808166666666674</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7351,25 @@
         <v>54041.1453</v>
       </c>
       <c r="G176" t="n">
+        <v>5.776</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.80633333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7393,25 @@
         <v>18</v>
       </c>
       <c r="G177" t="n">
+        <v>5.778666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.805166666666674</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7435,449 @@
         <v>36256.0306</v>
       </c>
       <c r="G178" t="n">
+        <v>5.778000000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.803666666666674</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F179" t="n">
+        <v>150550</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.780666666666668</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5.802000000000008</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26472.6293</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.781333333333335</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5.801166666666675</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>117207.6331</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.784666666666668</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5.800833333333342</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F182" t="n">
+        <v>99</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.787333333333335</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.800333333333342</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F183" t="n">
+        <v>10</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.789333333333335</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.799666666666676</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F184" t="n">
+        <v>56638.7647</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.789333333333335</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.797166666666675</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F185" t="n">
+        <v>39376.3415</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5.788000000000002</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5.794166666666674</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F186" t="n">
+        <v>160113.3143</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5.785333333333336</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.790666666666676</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4027.8746</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5.780666666666668</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5.786666666666676</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3538.5948</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5.780666666666668</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5.784500000000009</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.89</v>
+        <v>5.97</v>
       </c>
       <c r="C2" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="D2" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="E2" t="n">
-        <v>5.86</v>
+        <v>5.96</v>
       </c>
       <c r="F2" t="n">
-        <v>5240</v>
+        <v>19000</v>
       </c>
       <c r="G2" t="n">
-        <v>5.909499999999999</v>
+        <v>2345218.13667252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="C3" t="n">
         <v>5.95</v>
@@ -483,13 +483,13 @@
         <v>5.95</v>
       </c>
       <c r="E3" t="n">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="F3" t="n">
-        <v>5220</v>
+        <v>5164.5328</v>
       </c>
       <c r="G3" t="n">
-        <v>5.904499999999998</v>
+        <v>2340053.603872519</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="C4" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="D4" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="E4" t="n">
-        <v>5.83</v>
+        <v>5.95</v>
       </c>
       <c r="F4" t="n">
-        <v>18343.2767</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>5.901999999999998</v>
+        <v>2340053.603872519</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="D5" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="E5" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="F5" t="n">
-        <v>1448.7297</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>5.901499999999999</v>
+        <v>2340063.603872519</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="E6" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>303289.4214</v>
       </c>
       <c r="G6" t="n">
-        <v>5.903499999999999</v>
+        <v>2340063.603872519</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="C7" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="D7" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="E7" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>1270.0233</v>
       </c>
       <c r="G7" t="n">
-        <v>5.902499999999999</v>
+        <v>2338793.580572519</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.91</v>
+        <v>6.05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.91</v>
+        <v>6.05</v>
       </c>
       <c r="D8" t="n">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="E8" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="F8" t="n">
-        <v>1102320.7851</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>5.900499999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="D9" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="E9" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="F9" t="n">
-        <v>94879.52650000001</v>
+        <v>14779.6694</v>
       </c>
       <c r="G9" t="n">
-        <v>5.894499999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D10" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E10" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G10" t="n">
-        <v>5.891999999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D11" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E11" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>40434.7826</v>
       </c>
       <c r="G11" t="n">
-        <v>5.890999999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D12" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E12" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>719058.842975206</v>
       </c>
       <c r="G12" t="n">
-        <v>5.889999999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C13" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D13" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E13" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>259660.165289256</v>
       </c>
       <c r="G13" t="n">
-        <v>5.891499999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E14" t="n">
-        <v>5.82</v>
+        <v>6.05</v>
       </c>
       <c r="F14" t="n">
-        <v>149698.0474</v>
+        <v>28129.917355371</v>
       </c>
       <c r="G14" t="n">
-        <v>5.892999999999999</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C15" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="D15" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E15" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>18987.768595041</v>
       </c>
       <c r="G15" t="n">
-        <v>5.8965</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.83</v>
+        <v>6.05</v>
       </c>
       <c r="E16" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>19717.851239669</v>
       </c>
       <c r="G16" t="n">
-        <v>5.8925</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="D17" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="E17" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="F17" t="n">
-        <v>10010</v>
+        <v>196168.429664462</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8855</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.81</v>
+        <v>6.05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="D18" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="E18" t="n">
-        <v>5.81</v>
+        <v>6.05</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>324391.239664462</v>
       </c>
       <c r="G18" t="n">
-        <v>5.878500000000001</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="C19" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="D19" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="E19" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>299978.3471</v>
       </c>
       <c r="G19" t="n">
-        <v>5.880000000000001</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="C20" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="D20" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="E20" t="n">
-        <v>5.79</v>
+        <v>6.05</v>
       </c>
       <c r="F20" t="n">
-        <v>4313.4624</v>
+        <v>27601.157</v>
       </c>
       <c r="G20" t="n">
-        <v>5.877000000000001</v>
+        <v>2338811.580572519</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="C21" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="D21" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="E21" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>406418.5617</v>
       </c>
       <c r="G21" t="n">
-        <v>5.876000000000001</v>
+        <v>1932393.018872519</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.82</v>
+        <v>5.97</v>
       </c>
       <c r="C22" t="n">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="D22" t="n">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="E22" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>157035</v>
       </c>
       <c r="G22" t="n">
-        <v>5.872500000000001</v>
+        <v>1775358.018872519</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.8</v>
+        <v>5.98</v>
       </c>
       <c r="C23" t="n">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="D23" t="n">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="E23" t="n">
-        <v>5.78</v>
+        <v>5.98</v>
       </c>
       <c r="F23" t="n">
-        <v>189664.7938</v>
+        <v>29.2316</v>
       </c>
       <c r="G23" t="n">
-        <v>5.870000000000002</v>
+        <v>1775387.25047252</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="C24" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="D24" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="E24" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>5.869500000000001</v>
+        <v>1775441.25047252</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="C25" t="n">
-        <v>5.72</v>
+        <v>5.98</v>
       </c>
       <c r="D25" t="n">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="E25" t="n">
-        <v>5.72</v>
+        <v>5.98</v>
       </c>
       <c r="F25" t="n">
-        <v>349512.3483</v>
+        <v>24.7684</v>
       </c>
       <c r="G25" t="n">
-        <v>5.860500000000001</v>
+        <v>1775416.48207252</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.72</v>
+        <v>5.96</v>
       </c>
       <c r="C26" t="n">
-        <v>5.88</v>
+        <v>5.96</v>
       </c>
       <c r="D26" t="n">
-        <v>5.88</v>
+        <v>5.96</v>
       </c>
       <c r="E26" t="n">
-        <v>5.65</v>
+        <v>5.96</v>
       </c>
       <c r="F26" t="n">
-        <v>1461512.9057</v>
+        <v>54518.567</v>
       </c>
       <c r="G26" t="n">
-        <v>5.850500000000001</v>
+        <v>1720897.91507252</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="C27" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>1551706.3514</v>
       </c>
       <c r="G27" t="n">
-        <v>5.849000000000001</v>
+        <v>3272604.266472519</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="C28" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="D28" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="E28" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>3352.2931</v>
       </c>
       <c r="G28" t="n">
-        <v>5.836500000000001</v>
+        <v>3269251.973372519</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.67</v>
+        <v>5.98</v>
       </c>
       <c r="C29" t="n">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="D29" t="n">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="E29" t="n">
-        <v>5.67</v>
+        <v>5.98</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>5.828500000000001</v>
+        <v>3269261.973372519</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="C30" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="D30" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="E30" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>335.2931</v>
       </c>
       <c r="G30" t="n">
-        <v>5.821000000000001</v>
+        <v>3268926.68027252</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="C31" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="D31" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="E31" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>302242.9765</v>
       </c>
       <c r="G31" t="n">
-        <v>5.82</v>
+        <v>3571169.656772519</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="C32" t="n">
-        <v>5.68</v>
+        <v>5.97</v>
       </c>
       <c r="D32" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="E32" t="n">
-        <v>5.68</v>
+        <v>5.97</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>173.7069</v>
       </c>
       <c r="G32" t="n">
-        <v>5.81</v>
+        <v>3570995.949872519</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.68</v>
+        <v>5.79</v>
       </c>
       <c r="C33" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="D33" t="n">
-        <v>5.75</v>
+        <v>5.79</v>
       </c>
       <c r="E33" t="n">
-        <v>5.68</v>
+        <v>5.78</v>
       </c>
       <c r="F33" t="n">
-        <v>75128.3759</v>
+        <v>150000</v>
       </c>
       <c r="G33" t="n">
-        <v>5.798999999999999</v>
+        <v>3420995.949872519</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="C34" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="D34" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="E34" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>5.791499999999999</v>
+        <v>3421005.949872519</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="C35" t="n">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="D35" t="n">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="E35" t="n">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="F35" t="n">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="G35" t="n">
-        <v>5.783499999999998</v>
+        <v>3420496.949872519</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.77</v>
+        <v>5.99</v>
       </c>
       <c r="C36" t="n">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="D36" t="n">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="E36" t="n">
-        <v>5.77</v>
+        <v>5.99</v>
       </c>
       <c r="F36" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>5.780499999999998</v>
+        <v>3420506.949872519</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.77</v>
+        <v>5.99</v>
       </c>
       <c r="C37" t="n">
-        <v>5.74</v>
+        <v>5.99</v>
       </c>
       <c r="D37" t="n">
-        <v>5.77</v>
+        <v>5.99</v>
       </c>
       <c r="E37" t="n">
-        <v>5.74</v>
+        <v>5.99</v>
       </c>
       <c r="F37" t="n">
-        <v>39980.6782</v>
+        <v>4800</v>
       </c>
       <c r="G37" t="n">
-        <v>5.779499999999998</v>
+        <v>3420506.949872519</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="C38" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="D38" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="E38" t="n">
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>5.776499999999998</v>
+        <v>3420506.949872519</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="C39" t="n">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="D39" t="n">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="E39" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="F39" t="n">
-        <v>77</v>
+        <v>21.6844</v>
       </c>
       <c r="G39" t="n">
-        <v>5.769999999999998</v>
+        <v>3420506.949872519</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
       <c r="C40" t="n">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
       <c r="D40" t="n">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
       <c r="E40" t="n">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
       <c r="F40" t="n">
-        <v>27206.3859</v>
+        <v>395787.226</v>
       </c>
       <c r="G40" t="n">
-        <v>5.765499999999998</v>
+        <v>3024719.723872519</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="C41" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="D41" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="E41" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="F41" t="n">
-        <v>52396.308</v>
+        <v>2071312</v>
       </c>
       <c r="G41" t="n">
-        <v>5.753999999999998</v>
+        <v>3024719.723872519</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.65</v>
+        <v>5.84</v>
       </c>
       <c r="C42" t="n">
-        <v>5.65</v>
+        <v>5.97</v>
       </c>
       <c r="D42" t="n">
-        <v>5.65</v>
+        <v>5.98</v>
       </c>
       <c r="E42" t="n">
-        <v>5.65</v>
+        <v>5.84</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>894588.6901</v>
       </c>
       <c r="G42" t="n">
-        <v>5.745499999999998</v>
+        <v>3919308.413972519</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.66</v>
+        <v>5.97</v>
       </c>
       <c r="C43" t="n">
-        <v>5.65</v>
+        <v>5.98</v>
       </c>
       <c r="D43" t="n">
-        <v>5.66</v>
+        <v>5.98</v>
       </c>
       <c r="E43" t="n">
-        <v>5.65</v>
+        <v>5.97</v>
       </c>
       <c r="F43" t="n">
-        <v>200000</v>
+        <v>119481.3</v>
       </c>
       <c r="G43" t="n">
-        <v>5.738499999999998</v>
+        <v>4038789.713972519</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="C44" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="D44" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="E44" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="F44" t="n">
-        <v>250000</v>
+        <v>1551990.9533</v>
       </c>
       <c r="G44" t="n">
-        <v>5.727499999999998</v>
+        <v>2486798.760672519</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="C45" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="D45" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="E45" t="n">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="F45" t="n">
-        <v>2263.6041</v>
+        <v>1038146.2692</v>
       </c>
       <c r="G45" t="n">
-        <v>5.723499999999999</v>
+        <v>1448652.491472519</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.67</v>
+        <v>5.84</v>
       </c>
       <c r="C46" t="n">
-        <v>5.67</v>
+        <v>5.84</v>
       </c>
       <c r="D46" t="n">
-        <v>5.67</v>
+        <v>5.84</v>
       </c>
       <c r="E46" t="n">
-        <v>5.67</v>
+        <v>5.84</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>100676.7123</v>
       </c>
       <c r="G46" t="n">
-        <v>5.720999999999998</v>
+        <v>1448652.491472519</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C47" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="D47" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="E47" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F47" t="n">
-        <v>10.6346</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>5.717999999999998</v>
+        <v>1448662.491472519</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.69</v>
+        <v>5.85</v>
       </c>
       <c r="C48" t="n">
-        <v>5.67</v>
+        <v>5.96</v>
       </c>
       <c r="D48" t="n">
-        <v>5.69</v>
+        <v>5.96</v>
       </c>
       <c r="E48" t="n">
-        <v>5.67</v>
+        <v>5.85</v>
       </c>
       <c r="F48" t="n">
-        <v>103686</v>
+        <v>302030.1369</v>
       </c>
       <c r="G48" t="n">
-        <v>5.719499999999998</v>
+        <v>1750692.628372519</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="C49" t="n">
-        <v>5.77</v>
+        <v>5.96</v>
       </c>
       <c r="D49" t="n">
-        <v>5.77</v>
+        <v>5.96</v>
       </c>
       <c r="E49" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="F49" t="n">
-        <v>1010</v>
+        <v>649656.0126</v>
       </c>
       <c r="G49" t="n">
-        <v>5.719499999999998</v>
+        <v>1750692.628372519</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.69</v>
+        <v>5.95</v>
       </c>
       <c r="C50" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="D50" t="n">
-        <v>5.69</v>
+        <v>5.96</v>
       </c>
       <c r="E50" t="n">
-        <v>5.68</v>
+        <v>5.9</v>
       </c>
       <c r="F50" t="n">
-        <v>94</v>
+        <v>510578.2515</v>
       </c>
       <c r="G50" t="n">
-        <v>5.716499999999998</v>
+        <v>1240114.376872519</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="C51" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="D51" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="E51" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="F51" t="n">
-        <v>1549.2283</v>
+        <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>5.705999999999999</v>
+        <v>1240114.376872519</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="C52" t="n">
-        <v>5.73</v>
+        <v>5.95</v>
       </c>
       <c r="D52" t="n">
-        <v>5.74</v>
+        <v>5.95</v>
       </c>
       <c r="E52" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="F52" t="n">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="G52" t="n">
-        <v>5.704999999999999</v>
+        <v>1240114.376872519</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.71</v>
+        <v>5.95</v>
       </c>
       <c r="C53" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="D53" t="n">
-        <v>5.71</v>
+        <v>5.95</v>
       </c>
       <c r="E53" t="n">
-        <v>5.68</v>
+        <v>5.95</v>
       </c>
       <c r="F53" t="n">
-        <v>20011</v>
+        <v>121</v>
       </c>
       <c r="G53" t="n">
-        <v>5.706499999999998</v>
+        <v>1240114.376872519</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="C54" t="n">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="D54" t="n">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="E54" t="n">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G54" t="n">
-        <v>5.704499999999999</v>
+        <v>1240114.376872519</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="C55" t="n">
-        <v>5.73</v>
+        <v>5.94</v>
       </c>
       <c r="D55" t="n">
-        <v>5.73</v>
+        <v>5.94</v>
       </c>
       <c r="E55" t="n">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="F55" t="n">
-        <v>40018</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>5.702499999999999</v>
+        <v>1240104.376872519</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.73</v>
+        <v>5.93</v>
       </c>
       <c r="C56" t="n">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="D56" t="n">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="E56" t="n">
-        <v>5.73</v>
+        <v>5.87</v>
       </c>
       <c r="F56" t="n">
-        <v>78600</v>
+        <v>116233</v>
       </c>
       <c r="G56" t="n">
-        <v>5.7005</v>
+        <v>1240104.376872519</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.74</v>
+        <v>5.88</v>
       </c>
       <c r="C57" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E57" t="n">
         <v>5.88</v>
       </c>
-      <c r="D57" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5.74</v>
-      </c>
       <c r="F57" t="n">
-        <v>75571</v>
+        <v>124741</v>
       </c>
       <c r="G57" t="n">
-        <v>5.699</v>
+        <v>1115363.376872519</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="C58" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E58" t="n">
         <v>5.92</v>
       </c>
-      <c r="D58" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.88</v>
-      </c>
       <c r="F58" t="n">
-        <v>311593.2138</v>
+        <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>5.705499999999999</v>
+        <v>1115418.376872519</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C59" t="n">
         <v>5.92</v>
       </c>
-      <c r="C59" t="n">
-        <v>5.98</v>
-      </c>
       <c r="D59" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="E59" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="F59" t="n">
-        <v>1041574.9936</v>
+        <v>57479.897</v>
       </c>
       <c r="G59" t="n">
-        <v>5.713499999999999</v>
+        <v>1057938.479872519</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="C60" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="D60" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="E60" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="F60" t="n">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="G60" t="n">
-        <v>5.727499999999999</v>
+        <v>1057966.479872519</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="C61" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D61" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E61" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="F61" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>5.742999999999999</v>
+        <v>1057966.479872519</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="C62" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D62" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E62" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="F62" t="n">
-        <v>4664.2844</v>
+        <v>52</v>
       </c>
       <c r="G62" t="n">
-        <v>5.758999999999999</v>
+        <v>1057966.479872519</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="C63" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D63" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E63" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="F63" t="n">
-        <v>2472</v>
+        <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>5.774499999999999</v>
+        <v>1057966.479872519</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="C64" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="D64" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="E64" t="n">
-        <v>5.92</v>
+        <v>5.87</v>
       </c>
       <c r="F64" t="n">
-        <v>78763</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>5.789499999999999</v>
+        <v>1057955.479872519</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.91</v>
+        <v>5.86</v>
       </c>
       <c r="C65" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="D65" t="n">
-        <v>5.91</v>
+        <v>5.86</v>
       </c>
       <c r="E65" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>53577.0342</v>
       </c>
       <c r="G65" t="n">
-        <v>5.801999999999999</v>
+        <v>1004378.445672519</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="C66" t="n">
-        <v>5.98</v>
+        <v>5.83</v>
       </c>
       <c r="D66" t="n">
-        <v>5.98</v>
+        <v>5.83</v>
       </c>
       <c r="E66" t="n">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="F66" t="n">
-        <v>1018865.5758</v>
+        <v>74509.9485</v>
       </c>
       <c r="G66" t="n">
-        <v>5.813499999999999</v>
+        <v>929868.4971725191</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C67" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D67" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="E67" t="n">
-        <v>5.97</v>
+        <v>5.91</v>
       </c>
       <c r="F67" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>5.821</v>
+        <v>929888.4971725191</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.97</v>
+        <v>5.93</v>
       </c>
       <c r="C68" t="n">
-        <v>5.97</v>
+        <v>5.93</v>
       </c>
       <c r="D68" t="n">
-        <v>5.97</v>
+        <v>5.93</v>
       </c>
       <c r="E68" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="F68" t="n">
         <v>33</v>
       </c>
       <c r="G68" t="n">
-        <v>5.834999999999999</v>
+        <v>929855.4971725191</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="C69" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D69" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E69" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>5.85</v>
+        <v>929865.4971725191</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.97</v>
+        <v>5.86</v>
       </c>
       <c r="C70" t="n">
-        <v>5.97</v>
+        <v>5.94</v>
       </c>
       <c r="D70" t="n">
-        <v>5.97</v>
+        <v>5.94</v>
       </c>
       <c r="E70" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="F70" t="n">
-        <v>2577</v>
+        <v>111121</v>
       </c>
       <c r="G70" t="n">
-        <v>5.863999999999999</v>
+        <v>818744.4971725191</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="C71" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="D71" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="E71" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="F71" t="n">
-        <v>3244</v>
+        <v>1551.9222</v>
       </c>
       <c r="G71" t="n">
-        <v>5.879</v>
+        <v>817192.5749725191</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.97</v>
+        <v>5.91</v>
       </c>
       <c r="C72" t="n">
-        <v>5.97</v>
+        <v>5.94</v>
       </c>
       <c r="D72" t="n">
-        <v>5.97</v>
+        <v>5.94</v>
       </c>
       <c r="E72" t="n">
-        <v>5.97</v>
+        <v>5.91</v>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>5.893499999999999</v>
+        <v>817212.5749725191</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.96</v>
+        <v>5.89</v>
       </c>
       <c r="C73" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D73" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="E73" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="F73" t="n">
-        <v>100000</v>
+        <v>5240</v>
       </c>
       <c r="G73" t="n">
-        <v>5.905999999999999</v>
+        <v>817212.5749725191</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C74" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D74" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E74" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="F74" t="n">
-        <v>33</v>
+        <v>5220</v>
       </c>
       <c r="G74" t="n">
-        <v>5.915499999999999</v>
+        <v>822432.5749725191</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C75" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="D75" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="E75" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F75" t="n">
-        <v>105767.8856</v>
+        <v>18343.2767</v>
       </c>
       <c r="G75" t="n">
-        <v>5.928999999999998</v>
+        <v>804089.298272519</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.95</v>
+        <v>5.92</v>
       </c>
       <c r="C76" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="D76" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="E76" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="F76" t="n">
-        <v>88</v>
+        <v>1448.7297</v>
       </c>
       <c r="G76" t="n">
-        <v>5.939999999999999</v>
+        <v>804089.298272519</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C77" t="n">
-        <v>5.95</v>
+        <v>5.92</v>
       </c>
       <c r="D77" t="n">
-        <v>5.95</v>
+        <v>5.92</v>
       </c>
       <c r="E77" t="n">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="F77" t="n">
-        <v>100044</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>5.949999999999998</v>
+        <v>804089.298272519</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C78" t="n">
         <v>5.92</v>
       </c>
       <c r="D78" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E78" t="n">
         <v>5.92</v>
       </c>
       <c r="F78" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>5.952999999999999</v>
+        <v>804089.298272519</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.96</v>
+        <v>5.91</v>
       </c>
       <c r="C79" t="n">
-        <v>5.96</v>
+        <v>5.91</v>
       </c>
       <c r="D79" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="E79" t="n">
-        <v>5.96</v>
+        <v>5.83</v>
       </c>
       <c r="F79" t="n">
-        <v>55</v>
+        <v>1102320.7851</v>
       </c>
       <c r="G79" t="n">
-        <v>5.954999999999998</v>
+        <v>-298231.486827481</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.95</v>
+        <v>5.83</v>
       </c>
       <c r="C80" t="n">
-        <v>5.93</v>
+        <v>5.83</v>
       </c>
       <c r="D80" t="n">
-        <v>5.95</v>
+        <v>5.83</v>
       </c>
       <c r="E80" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="F80" t="n">
-        <v>27620.1541</v>
+        <v>94879.52650000001</v>
       </c>
       <c r="G80" t="n">
-        <v>5.953499999999998</v>
+        <v>-393111.013327481</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="C81" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D81" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="E81" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F81" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>5.950999999999999</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C82" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="D82" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="E82" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F82" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>5.945499999999998</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="C83" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D83" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="E83" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="F83" t="n">
-        <v>682935.7206</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>5.940999999999998</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="C84" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D84" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="E84" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>5.936499999999999</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="C85" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="D85" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E85" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>149698.0474</v>
       </c>
       <c r="G85" t="n">
-        <v>5.932999999999999</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.74</v>
+        <v>5.9</v>
       </c>
       <c r="C86" t="n">
-        <v>5.76</v>
+        <v>5.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5.76</v>
+        <v>5.9</v>
       </c>
       <c r="E86" t="n">
-        <v>5.74</v>
+        <v>5.9</v>
       </c>
       <c r="F86" t="n">
-        <v>30157.9097</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>5.924999999999999</v>
+        <v>-393101.013327481</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="C87" t="n">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="D87" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="E87" t="n">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="F87" t="n">
-        <v>27894.9999</v>
+        <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>5.913999999999999</v>
+        <v>-403101.013327481</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="C88" t="n">
-        <v>5.73</v>
+        <v>5.89</v>
       </c>
       <c r="D88" t="n">
-        <v>5.73</v>
+        <v>5.89</v>
       </c>
       <c r="E88" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>10010</v>
       </c>
       <c r="G88" t="n">
-        <v>5.901999999999999</v>
+        <v>-393091.013327481</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.9</v>
+        <v>5.81</v>
       </c>
       <c r="C89" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D89" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="E89" t="n">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="F89" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>5.898499999999999</v>
+        <v>-393111.013327481</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="C90" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="D90" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="E90" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="F90" t="n">
-        <v>151984.898</v>
+        <v>28</v>
       </c>
       <c r="G90" t="n">
-        <v>5.892999999999999</v>
+        <v>-393139.013327481</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="C91" t="n">
-        <v>5.75</v>
+        <v>5.88</v>
       </c>
       <c r="D91" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="E91" t="n">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="F91" t="n">
-        <v>21701.522</v>
+        <v>4313.4624</v>
       </c>
       <c r="G91" t="n">
-        <v>5.887499999999999</v>
+        <v>-388825.550927481</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="C92" t="n">
-        <v>5.75</v>
+        <v>5.89</v>
       </c>
       <c r="D92" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="E92" t="n">
-        <v>5.75</v>
+        <v>5.89</v>
       </c>
       <c r="F92" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>5.885999999999999</v>
+        <v>-388815.550927481</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.76</v>
+        <v>5.82</v>
       </c>
       <c r="C93" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D93" t="n">
         <v>5.9</v>
       </c>
       <c r="E93" t="n">
-        <v>5.76</v>
+        <v>5.81</v>
       </c>
       <c r="F93" t="n">
-        <v>34738.045</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
-        <v>5.875999999999999</v>
+        <v>-388775.550927481</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C94" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="D94" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="E94" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F94" t="n">
-        <v>181448.3317</v>
+        <v>189664.7938</v>
       </c>
       <c r="G94" t="n">
-        <v>5.8765</v>
+        <v>-578440.344727481</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3789,19 +3789,19 @@
         <v>5.88</v>
       </c>
       <c r="C95" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
       <c r="D95" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E95" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F95" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>5.872</v>
+        <v>-578430.344727481</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.92</v>
+        <v>5.74</v>
       </c>
       <c r="C96" t="n">
-        <v>5.93</v>
+        <v>5.72</v>
       </c>
       <c r="D96" t="n">
-        <v>5.94</v>
+        <v>5.74</v>
       </c>
       <c r="E96" t="n">
-        <v>5.9</v>
+        <v>5.72</v>
       </c>
       <c r="F96" t="n">
-        <v>121</v>
+        <v>349512.3483</v>
       </c>
       <c r="G96" t="n">
-        <v>5.8705</v>
+        <v>-927942.693027481</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.93</v>
+        <v>5.72</v>
       </c>
       <c r="C97" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D97" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E97" t="n">
-        <v>5.8</v>
+        <v>5.65</v>
       </c>
       <c r="F97" t="n">
-        <v>20701.0348</v>
+        <v>1461512.9057</v>
       </c>
       <c r="G97" t="n">
-        <v>5.87</v>
+        <v>533570.212672519</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.91</v>
+        <v>5.89</v>
       </c>
       <c r="C98" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D98" t="n">
-        <v>5.91</v>
+        <v>5.89</v>
       </c>
       <c r="E98" t="n">
-        <v>5.79</v>
+        <v>5.89</v>
       </c>
       <c r="F98" t="n">
-        <v>100634.5263</v>
+        <v>18</v>
       </c>
       <c r="G98" t="n">
-        <v>5.8685</v>
+        <v>533588.212672519</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.85</v>
+        <v>5.66</v>
       </c>
       <c r="C99" t="n">
-        <v>5.86</v>
+        <v>5.66</v>
       </c>
       <c r="D99" t="n">
-        <v>5.86</v>
+        <v>5.66</v>
       </c>
       <c r="E99" t="n">
-        <v>5.79</v>
+        <v>5.66</v>
       </c>
       <c r="F99" t="n">
-        <v>84845.9175</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>5.863</v>
+        <v>533578.212672519</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.86</v>
+        <v>5.67</v>
       </c>
       <c r="C100" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="D100" t="n">
-        <v>5.86</v>
+        <v>5.74</v>
       </c>
       <c r="E100" t="n">
-        <v>5.8</v>
+        <v>5.67</v>
       </c>
       <c r="F100" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>5.8585</v>
+        <v>533618.212672519</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="C101" t="n">
-        <v>5.87</v>
+        <v>5.76</v>
       </c>
       <c r="D101" t="n">
-        <v>5.88</v>
+        <v>5.76</v>
       </c>
       <c r="E101" t="n">
-        <v>5.87</v>
+        <v>5.75</v>
       </c>
       <c r="F101" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>5.8565</v>
+        <v>533629.212672519</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C102" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="D102" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="E102" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="F102" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
-        <v>5.8545</v>
+        <v>533647.212672519</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.86</v>
+        <v>5.7</v>
       </c>
       <c r="C103" t="n">
-        <v>5.86</v>
+        <v>5.68</v>
       </c>
       <c r="D103" t="n">
-        <v>5.86</v>
+        <v>5.7</v>
       </c>
       <c r="E103" t="n">
-        <v>5.86</v>
+        <v>5.68</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>5.853499999999999</v>
+        <v>533636.212672519</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.81</v>
+        <v>5.68</v>
       </c>
       <c r="C104" t="n">
-        <v>5.86</v>
+        <v>5.75</v>
       </c>
       <c r="D104" t="n">
-        <v>5.86</v>
+        <v>5.75</v>
       </c>
       <c r="E104" t="n">
-        <v>5.81</v>
+        <v>5.68</v>
       </c>
       <c r="F104" t="n">
-        <v>79481.0221</v>
+        <v>75128.3759</v>
       </c>
       <c r="G104" t="n">
-        <v>5.850499999999999</v>
+        <v>608764.588572519</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.86</v>
+        <v>5.74</v>
       </c>
       <c r="C105" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="D105" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="E105" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="F105" t="n">
-        <v>201706.9653</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>5.8515</v>
+        <v>608756.588572519</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.86</v>
+        <v>5.74</v>
       </c>
       <c r="C106" t="n">
-        <v>5.89</v>
+        <v>5.77</v>
       </c>
       <c r="D106" t="n">
-        <v>5.89</v>
+        <v>5.77</v>
       </c>
       <c r="E106" t="n">
-        <v>5.83</v>
+        <v>5.74</v>
       </c>
       <c r="F106" t="n">
-        <v>63697.268</v>
+        <v>141</v>
       </c>
       <c r="G106" t="n">
-        <v>5.8575</v>
+        <v>608897.588572519</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.84</v>
+        <v>5.77</v>
       </c>
       <c r="C107" t="n">
-        <v>5.84</v>
+        <v>5.78</v>
       </c>
       <c r="D107" t="n">
-        <v>5.84</v>
+        <v>5.78</v>
       </c>
       <c r="E107" t="n">
-        <v>5.84</v>
+        <v>5.77</v>
       </c>
       <c r="F107" t="n">
-        <v>7659.2</v>
+        <v>144</v>
       </c>
       <c r="G107" t="n">
-        <v>5.861499999999999</v>
+        <v>609041.588572519</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="C108" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="D108" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="E108" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>39980.6782</v>
       </c>
       <c r="G108" t="n">
-        <v>5.865999999999999</v>
+        <v>569060.9103725191</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="C109" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="D109" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="E109" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="F109" t="n">
-        <v>292.31</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>5.861999999999999</v>
+        <v>569070.9103725191</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="C110" t="n">
-        <v>5.85</v>
+        <v>5.78</v>
       </c>
       <c r="D110" t="n">
-        <v>5.85</v>
+        <v>5.78</v>
       </c>
       <c r="E110" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="F110" t="n">
-        <v>32272</v>
+        <v>77</v>
       </c>
       <c r="G110" t="n">
-        <v>5.860999999999999</v>
+        <v>569147.9103725191</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="C111" t="n">
-        <v>5.93</v>
+        <v>5.7</v>
       </c>
       <c r="D111" t="n">
-        <v>5.93</v>
+        <v>5.7</v>
       </c>
       <c r="E111" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="F111" t="n">
-        <v>177629.9128</v>
+        <v>27206.3859</v>
       </c>
       <c r="G111" t="n">
-        <v>5.863499999999999</v>
+        <v>541941.5244725191</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="C112" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="D112" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="E112" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="F112" t="n">
-        <v>27097.9936</v>
+        <v>52396.308</v>
       </c>
       <c r="G112" t="n">
-        <v>5.863</v>
+        <v>489545.216472519</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.95</v>
+        <v>5.65</v>
       </c>
       <c r="C113" t="n">
-        <v>5.96</v>
+        <v>5.65</v>
       </c>
       <c r="D113" t="n">
-        <v>5.96</v>
+        <v>5.65</v>
       </c>
       <c r="E113" t="n">
-        <v>5.95</v>
+        <v>5.65</v>
       </c>
       <c r="F113" t="n">
-        <v>199100.3919</v>
+        <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>5.8725</v>
+        <v>479545.216472519</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.95</v>
+        <v>5.66</v>
       </c>
       <c r="C114" t="n">
-        <v>5.96</v>
+        <v>5.65</v>
       </c>
       <c r="D114" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="E114" t="n">
-        <v>5.95</v>
+        <v>5.65</v>
       </c>
       <c r="F114" t="n">
-        <v>44758</v>
+        <v>200000</v>
       </c>
       <c r="G114" t="n">
-        <v>5.874999999999999</v>
+        <v>479545.216472519</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,31 +4506,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="C115" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="D115" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="E115" t="n">
-        <v>5.93</v>
+        <v>5.66</v>
       </c>
       <c r="F115" t="n">
-        <v>2897.66</v>
+        <v>250000</v>
       </c>
       <c r="G115" t="n">
-        <v>5.8775</v>
+        <v>729545.2164725191</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K115" t="n">
+        <v>5.65</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4542,32 +4546,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="C116" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="D116" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="E116" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="F116" t="n">
-        <v>7243.255</v>
+        <v>2263.6041</v>
       </c>
       <c r="G116" t="n">
-        <v>5.879499999999998</v>
+        <v>729545.2164725191</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K116" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4578,32 +4590,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="C117" t="n">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="D117" t="n">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="E117" t="n">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="F117" t="n">
-        <v>7615.39</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>5.879499999999998</v>
+        <v>729556.2164725191</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K117" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4614,31 +4634,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.93</v>
+        <v>5.83</v>
       </c>
       <c r="C118" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="D118" t="n">
-        <v>5.93</v>
+        <v>5.83</v>
       </c>
       <c r="E118" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="F118" t="n">
-        <v>260664.8811</v>
+        <v>10.6346</v>
       </c>
       <c r="G118" t="n">
-        <v>5.8805</v>
+        <v>729566.8510725191</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K118" t="n">
+        <v>5.67</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4650,32 +4674,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="C119" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="D119" t="n">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="E119" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="F119" t="n">
-        <v>169.8244</v>
+        <v>103686</v>
       </c>
       <c r="G119" t="n">
-        <v>5.8815</v>
+        <v>625880.8510725191</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K119" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +4718,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.92</v>
+        <v>5.67</v>
       </c>
       <c r="C120" t="n">
-        <v>5.92</v>
+        <v>5.77</v>
       </c>
       <c r="D120" t="n">
-        <v>5.92</v>
+        <v>5.77</v>
       </c>
       <c r="E120" t="n">
-        <v>5.92</v>
+        <v>5.67</v>
       </c>
       <c r="F120" t="n">
-        <v>18</v>
+        <v>1010</v>
       </c>
       <c r="G120" t="n">
-        <v>5.8845</v>
+        <v>626890.8510725191</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4710,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4722,22 +4760,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="C121" t="n">
-        <v>5.91</v>
+        <v>5.68</v>
       </c>
       <c r="D121" t="n">
-        <v>5.91</v>
+        <v>5.69</v>
       </c>
       <c r="E121" t="n">
-        <v>5.87</v>
+        <v>5.68</v>
       </c>
       <c r="F121" t="n">
-        <v>14189.33</v>
+        <v>94</v>
       </c>
       <c r="G121" t="n">
-        <v>5.884</v>
+        <v>626796.8510725191</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4746,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4758,22 +4802,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="C122" t="n">
-        <v>5.87</v>
+        <v>5.68</v>
       </c>
       <c r="D122" t="n">
-        <v>5.87</v>
+        <v>5.68</v>
       </c>
       <c r="E122" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="F122" t="n">
-        <v>21.2671</v>
+        <v>1549.2283</v>
       </c>
       <c r="G122" t="n">
-        <v>5.886500000000001</v>
+        <v>626796.8510725191</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4782,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4794,22 +4844,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.8</v>
+        <v>5.68</v>
       </c>
       <c r="C123" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D123" t="n">
         <v>5.74</v>
       </c>
-      <c r="D123" t="n">
-        <v>5.8</v>
-      </c>
       <c r="E123" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="F123" t="n">
-        <v>180812.4179</v>
+        <v>55</v>
       </c>
       <c r="G123" t="n">
-        <v>5.883500000000001</v>
+        <v>626851.8510725191</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4818,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4830,22 +4886,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="C124" t="n">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="D124" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E124" t="n">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="F124" t="n">
-        <v>23052.6099</v>
+        <v>20011</v>
       </c>
       <c r="G124" t="n">
-        <v>5.879500000000001</v>
+        <v>606840.8510725191</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4854,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4866,32 +4928,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C125" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="D125" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="E125" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F125" t="n">
-        <v>22770</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>5.873500000000001</v>
+        <v>606850.8510725191</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K125" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4902,22 +4972,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C126" t="n">
         <v>5.73</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.72</v>
       </c>
       <c r="D126" t="n">
         <v>5.73</v>
       </c>
       <c r="E126" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="F126" t="n">
-        <v>174780.2785</v>
+        <v>40018</v>
       </c>
       <c r="G126" t="n">
-        <v>5.867000000000001</v>
+        <v>646868.8510725191</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4926,8 +4996,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4938,22 +5014,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C127" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="D127" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="E127" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F127" t="n">
-        <v>17865.2809</v>
+        <v>78600</v>
       </c>
       <c r="G127" t="n">
-        <v>5.861000000000001</v>
+        <v>725468.8510725191</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4962,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4974,22 +5056,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C128" t="n">
-        <v>5.78</v>
+        <v>5.88</v>
       </c>
       <c r="D128" t="n">
-        <v>5.78</v>
+        <v>5.88</v>
       </c>
       <c r="E128" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="F128" t="n">
-        <v>2136</v>
+        <v>75571</v>
       </c>
       <c r="G128" t="n">
-        <v>5.856</v>
+        <v>801039.8510725191</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4998,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +5098,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.73</v>
+        <v>5.88</v>
       </c>
       <c r="C129" t="n">
-        <v>5.73</v>
+        <v>5.92</v>
       </c>
       <c r="D129" t="n">
-        <v>5.73</v>
+        <v>5.92</v>
       </c>
       <c r="E129" t="n">
-        <v>5.73</v>
+        <v>5.88</v>
       </c>
       <c r="F129" t="n">
-        <v>8695.652099999999</v>
+        <v>311593.2138</v>
       </c>
       <c r="G129" t="n">
-        <v>5.8515</v>
+        <v>1112633.064872519</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5034,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +5140,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.72</v>
+        <v>5.92</v>
       </c>
       <c r="C130" t="n">
-        <v>5.72</v>
+        <v>5.98</v>
       </c>
       <c r="D130" t="n">
-        <v>5.72</v>
+        <v>5.98</v>
       </c>
       <c r="E130" t="n">
-        <v>5.72</v>
+        <v>5.92</v>
       </c>
       <c r="F130" t="n">
-        <v>40000</v>
+        <v>1041574.9936</v>
       </c>
       <c r="G130" t="n">
-        <v>5.845499999999999</v>
+        <v>2154208.058472519</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5070,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +5182,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="C131" t="n">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="D131" t="n">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="E131" t="n">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="F131" t="n">
-        <v>22336.3885</v>
+        <v>119</v>
       </c>
       <c r="G131" t="n">
-        <v>5.8365</v>
+        <v>2154208.058472519</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5106,8 +5206,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5118,22 +5224,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="C132" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="D132" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="E132" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="F132" t="n">
-        <v>50137.966</v>
+        <v>33</v>
       </c>
       <c r="G132" t="n">
-        <v>5.826000000000001</v>
+        <v>2154175.058472519</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5142,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +5266,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.73</v>
+        <v>5.97</v>
       </c>
       <c r="C133" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="D133" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="E133" t="n">
-        <v>5.73</v>
+        <v>5.97</v>
       </c>
       <c r="F133" t="n">
-        <v>44495.8696</v>
+        <v>4664.2844</v>
       </c>
       <c r="G133" t="n">
-        <v>5.815</v>
+        <v>2154175.058472519</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5178,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5190,36 +5308,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="C134" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="D134" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="E134" t="n">
-        <v>5.76</v>
+        <v>5.97</v>
       </c>
       <c r="F134" t="n">
-        <v>13000</v>
+        <v>2472</v>
       </c>
       <c r="G134" t="n">
-        <v>5.8055</v>
+        <v>2154175.058472519</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>5.76</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
+        <v>5.67</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5230,38 +5350,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.76</v>
+        <v>5.96</v>
       </c>
       <c r="C135" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="D135" t="n">
-        <v>5.82</v>
+        <v>5.96</v>
       </c>
       <c r="E135" t="n">
-        <v>5.76</v>
+        <v>5.92</v>
       </c>
       <c r="F135" t="n">
-        <v>2157.0317</v>
+        <v>78763</v>
       </c>
       <c r="G135" t="n">
-        <v>5.797000000000001</v>
+        <v>2075412.058472519</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>5.76</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -5274,34 +5392,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.74</v>
+        <v>5.91</v>
       </c>
       <c r="C136" t="n">
-        <v>5.74</v>
+        <v>5.9</v>
       </c>
       <c r="D136" t="n">
-        <v>5.74</v>
+        <v>5.91</v>
       </c>
       <c r="E136" t="n">
-        <v>5.74</v>
+        <v>5.9</v>
       </c>
       <c r="F136" t="n">
-        <v>5691.46</v>
+        <v>22</v>
       </c>
       <c r="G136" t="n">
-        <v>5.786000000000001</v>
+        <v>2075390.058472519</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>5.82</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5318,34 +5434,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.82</v>
+        <v>5.9</v>
       </c>
       <c r="C137" t="n">
-        <v>5.82</v>
+        <v>5.98</v>
       </c>
       <c r="D137" t="n">
-        <v>5.82</v>
+        <v>5.98</v>
       </c>
       <c r="E137" t="n">
-        <v>5.82</v>
+        <v>5.9</v>
       </c>
       <c r="F137" t="n">
-        <v>189.003436426</v>
+        <v>1018865.5758</v>
       </c>
       <c r="G137" t="n">
-        <v>5.780500000000001</v>
+        <v>3094255.634272519</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5362,22 +5476,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.75</v>
+        <v>5.98</v>
       </c>
       <c r="C138" t="n">
-        <v>5.74</v>
+        <v>5.97</v>
       </c>
       <c r="D138" t="n">
-        <v>5.75</v>
+        <v>5.98</v>
       </c>
       <c r="E138" t="n">
-        <v>5.74</v>
+        <v>5.97</v>
       </c>
       <c r="F138" t="n">
-        <v>60952.9737</v>
+        <v>121</v>
       </c>
       <c r="G138" t="n">
-        <v>5.771500000000001</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5387,7 +5501,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5404,22 +5518,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.74</v>
+        <v>5.97</v>
       </c>
       <c r="C139" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="D139" t="n">
-        <v>5.74</v>
+        <v>5.97</v>
       </c>
       <c r="E139" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="F139" t="n">
-        <v>272100.97</v>
+        <v>33</v>
       </c>
       <c r="G139" t="n">
-        <v>5.765</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5429,7 +5543,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5446,34 +5560,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="C140" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="D140" t="n">
-        <v>5.72</v>
+        <v>5.97</v>
       </c>
       <c r="E140" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="F140" t="n">
-        <v>387453.2845</v>
+        <v>11</v>
       </c>
       <c r="G140" t="n">
-        <v>5.755</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5.72</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5490,34 +5602,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="C141" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="D141" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="E141" t="n">
-        <v>5.7</v>
+        <v>5.97</v>
       </c>
       <c r="F141" t="n">
-        <v>348218.8032</v>
+        <v>2577</v>
       </c>
       <c r="G141" t="n">
-        <v>5.746499999999999</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5534,34 +5644,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="C142" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="D142" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="E142" t="n">
-        <v>5.75</v>
+        <v>5.97</v>
       </c>
       <c r="F142" t="n">
-        <v>6808.2717</v>
+        <v>3244</v>
       </c>
       <c r="G142" t="n">
-        <v>5.740499999999999</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5578,34 +5686,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.79</v>
+        <v>5.97</v>
       </c>
       <c r="C143" t="n">
-        <v>5.79</v>
+        <v>5.97</v>
       </c>
       <c r="D143" t="n">
-        <v>5.79</v>
+        <v>5.97</v>
       </c>
       <c r="E143" t="n">
-        <v>5.79</v>
+        <v>5.97</v>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G143" t="n">
-        <v>5.74</v>
+        <v>3094134.634272519</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5622,34 +5728,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.79</v>
+        <v>5.96</v>
       </c>
       <c r="C144" t="n">
-        <v>5.81</v>
+        <v>5.9</v>
       </c>
       <c r="D144" t="n">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="E144" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="F144" t="n">
-        <v>106880.4359</v>
+        <v>100000</v>
       </c>
       <c r="G144" t="n">
-        <v>5.743</v>
+        <v>2994134.634272519</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5666,34 +5770,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.81</v>
+        <v>5.89</v>
       </c>
       <c r="C145" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="D145" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="E145" t="n">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="F145" t="n">
-        <v>21883.2185</v>
+        <v>33</v>
       </c>
       <c r="G145" t="n">
-        <v>5.7465</v>
+        <v>2994167.634272519</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5710,34 +5812,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="C146" t="n">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="D146" t="n">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="E146" t="n">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="F146" t="n">
-        <v>96132.35799999999</v>
+        <v>105767.8856</v>
       </c>
       <c r="G146" t="n">
-        <v>5.750500000000001</v>
+        <v>2888399.748672519</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5754,22 +5854,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="C147" t="n">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="D147" t="n">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="E147" t="n">
-        <v>5.81</v>
+        <v>5.94</v>
       </c>
       <c r="F147" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G147" t="n">
-        <v>5.755000000000001</v>
+        <v>2888487.748672519</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5779,7 +5879,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5796,22 +5896,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.81</v>
+        <v>5.94</v>
       </c>
       <c r="C148" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="D148" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="E148" t="n">
-        <v>5.81</v>
+        <v>5.9</v>
       </c>
       <c r="F148" t="n">
-        <v>36</v>
+        <v>100044</v>
       </c>
       <c r="G148" t="n">
-        <v>5.759500000000001</v>
+        <v>2788443.748672519</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5821,7 +5921,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5838,22 +5938,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.78</v>
+        <v>5.94</v>
       </c>
       <c r="C149" t="n">
-        <v>5.75</v>
+        <v>5.92</v>
       </c>
       <c r="D149" t="n">
-        <v>5.78</v>
+        <v>5.94</v>
       </c>
       <c r="E149" t="n">
-        <v>5.75</v>
+        <v>5.92</v>
       </c>
       <c r="F149" t="n">
-        <v>301487.369</v>
+        <v>33</v>
       </c>
       <c r="G149" t="n">
-        <v>5.762</v>
+        <v>2788410.748672519</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5863,7 +5963,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5880,22 +5980,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.8</v>
+        <v>5.96</v>
       </c>
       <c r="C150" t="n">
-        <v>5.8</v>
+        <v>5.96</v>
       </c>
       <c r="D150" t="n">
-        <v>5.8</v>
+        <v>5.96</v>
       </c>
       <c r="E150" t="n">
-        <v>5.8</v>
+        <v>5.96</v>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G150" t="n">
-        <v>5.766</v>
+        <v>2788465.748672519</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5905,7 +6005,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5922,22 +6022,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.76</v>
+        <v>5.95</v>
       </c>
       <c r="C151" t="n">
-        <v>5.75</v>
+        <v>5.93</v>
       </c>
       <c r="D151" t="n">
-        <v>5.76</v>
+        <v>5.95</v>
       </c>
       <c r="E151" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F151" t="n">
-        <v>1065272.562</v>
+        <v>27620.1541</v>
       </c>
       <c r="G151" t="n">
-        <v>5.7675</v>
+        <v>2760845.594572519</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5947,7 +6047,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5964,22 +6064,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
       <c r="C152" t="n">
-        <v>5.78</v>
+        <v>5.89</v>
       </c>
       <c r="D152" t="n">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
       <c r="E152" t="n">
-        <v>5.78</v>
+        <v>5.89</v>
       </c>
       <c r="F152" t="n">
-        <v>10993.4256</v>
+        <v>55</v>
       </c>
       <c r="G152" t="n">
-        <v>5.7705</v>
+        <v>2760790.594572519</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5989,7 +6089,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6006,22 +6106,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="C153" t="n">
-        <v>5.75</v>
+        <v>5.91</v>
       </c>
       <c r="D153" t="n">
-        <v>5.75</v>
+        <v>5.91</v>
       </c>
       <c r="E153" t="n">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="F153" t="n">
-        <v>394226.6966</v>
+        <v>55</v>
       </c>
       <c r="G153" t="n">
-        <v>5.771500000000001</v>
+        <v>2760845.594572519</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6031,7 +6131,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6048,22 +6148,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.75</v>
+        <v>5.88</v>
       </c>
       <c r="C154" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="D154" t="n">
-        <v>5.75</v>
+        <v>5.88</v>
       </c>
       <c r="E154" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="F154" t="n">
-        <v>95504.76579999999</v>
+        <v>682935.7206</v>
       </c>
       <c r="G154" t="n">
-        <v>5.771</v>
+        <v>2077909.873972519</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6073,7 +6173,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6090,22 +6190,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.78</v>
+        <v>5.87</v>
       </c>
       <c r="C155" t="n">
-        <v>5.78</v>
+        <v>5.86</v>
       </c>
       <c r="D155" t="n">
-        <v>5.78</v>
+        <v>5.87</v>
       </c>
       <c r="E155" t="n">
-        <v>5.78</v>
+        <v>5.86</v>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G155" t="n">
-        <v>5.772</v>
+        <v>2077931.873972519</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6115,7 +6215,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6132,22 +6232,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="C156" t="n">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="D156" t="n">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="E156" t="n">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="F156" t="n">
-        <v>478.0276</v>
+        <v>11</v>
       </c>
       <c r="G156" t="n">
-        <v>5.774</v>
+        <v>2077920.873972519</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6157,7 +6257,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6174,22 +6274,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="C157" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D157" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="E157" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="F157" t="n">
-        <v>3979.7542</v>
+        <v>30157.9097</v>
       </c>
       <c r="G157" t="n">
-        <v>5.771500000000001</v>
+        <v>2047762.964272519</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6199,7 +6299,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6216,22 +6316,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="C158" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="D158" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="E158" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="F158" t="n">
-        <v>35731.9516</v>
+        <v>27894.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>5.7735</v>
+        <v>2019867.964372519</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6241,7 +6341,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6258,22 +6358,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.79</v>
+        <v>5.73</v>
       </c>
       <c r="C159" t="n">
-        <v>5.79</v>
+        <v>5.73</v>
       </c>
       <c r="D159" t="n">
-        <v>5.79</v>
+        <v>5.73</v>
       </c>
       <c r="E159" t="n">
-        <v>5.79</v>
+        <v>5.73</v>
       </c>
       <c r="F159" t="n">
-        <v>93747.0379</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>5.776000000000002</v>
+        <v>2019857.964372519</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6283,7 +6383,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6300,22 +6400,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C160" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D160" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E160" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="F160" t="n">
-        <v>12493.6206</v>
+        <v>87</v>
       </c>
       <c r="G160" t="n">
-        <v>5.780000000000001</v>
+        <v>2019944.964372519</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6325,7 +6425,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6342,22 +6442,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="C161" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D161" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E161" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="F161" t="n">
-        <v>90</v>
+        <v>151984.898</v>
       </c>
       <c r="G161" t="n">
-        <v>5.785000000000001</v>
+        <v>2019944.964372519</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6367,7 +6467,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6384,22 +6484,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="C162" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="D162" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E162" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="F162" t="n">
-        <v>286.551724137</v>
+        <v>21701.522</v>
       </c>
       <c r="G162" t="n">
-        <v>5.787500000000001</v>
+        <v>1998243.442372519</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6409,7 +6509,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6426,22 +6526,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="C163" t="n">
         <v>5.75</v>
       </c>
       <c r="D163" t="n">
-        <v>5.76</v>
+        <v>5.94</v>
       </c>
       <c r="E163" t="n">
         <v>5.75</v>
       </c>
       <c r="F163" t="n">
-        <v>54041.1453</v>
+        <v>34</v>
       </c>
       <c r="G163" t="n">
-        <v>5.786</v>
+        <v>1998243.442372519</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6451,7 +6551,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6468,22 +6568,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="C164" t="n">
-        <v>5.79</v>
+        <v>5.89</v>
       </c>
       <c r="D164" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="E164" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="F164" t="n">
-        <v>18</v>
+        <v>34738.045</v>
       </c>
       <c r="G164" t="n">
-        <v>5.786</v>
+        <v>2032981.487372519</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6493,7 +6593,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6510,22 +6610,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="C165" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="D165" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="E165" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="F165" t="n">
-        <v>36256.0306</v>
+        <v>181448.3317</v>
       </c>
       <c r="G165" t="n">
-        <v>5.785000000000001</v>
+        <v>1851533.155672519</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6535,7 +6635,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6552,22 +6652,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C166" t="n">
-        <v>5.79</v>
+        <v>5.92</v>
       </c>
       <c r="D166" t="n">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="E166" t="n">
-        <v>5.79</v>
+        <v>5.87</v>
       </c>
       <c r="F166" t="n">
-        <v>150550</v>
+        <v>55</v>
       </c>
       <c r="G166" t="n">
-        <v>5.784000000000001</v>
+        <v>1851588.155672519</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6577,7 +6677,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6594,22 +6694,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.8</v>
+        <v>5.92</v>
       </c>
       <c r="C167" t="n">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="D167" t="n">
-        <v>5.8</v>
+        <v>5.94</v>
       </c>
       <c r="E167" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="F167" t="n">
-        <v>26472.6293</v>
+        <v>121</v>
       </c>
       <c r="G167" t="n">
-        <v>5.783500000000001</v>
+        <v>1851709.155672519</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6619,7 +6719,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6636,22 +6736,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.8</v>
+        <v>5.93</v>
       </c>
       <c r="C168" t="n">
-        <v>5.8</v>
+        <v>5.89</v>
       </c>
       <c r="D168" t="n">
-        <v>5.8</v>
+        <v>5.93</v>
       </c>
       <c r="E168" t="n">
         <v>5.8</v>
       </c>
       <c r="F168" t="n">
-        <v>117207.6331</v>
+        <v>20701.0348</v>
       </c>
       <c r="G168" t="n">
-        <v>5.783</v>
+        <v>1831008.120872519</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6661,7 +6761,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6678,22 +6778,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.79</v>
+        <v>5.91</v>
       </c>
       <c r="C169" t="n">
-        <v>5.79</v>
+        <v>5.86</v>
       </c>
       <c r="D169" t="n">
-        <v>5.79</v>
+        <v>5.91</v>
       </c>
       <c r="E169" t="n">
         <v>5.79</v>
       </c>
       <c r="F169" t="n">
-        <v>99</v>
+        <v>100634.5263</v>
       </c>
       <c r="G169" t="n">
-        <v>5.783500000000001</v>
+        <v>1730373.594572519</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6703,7 +6803,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6720,22 +6820,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="C170" t="n">
-        <v>5.81</v>
+        <v>5.86</v>
       </c>
       <c r="D170" t="n">
-        <v>5.81</v>
+        <v>5.86</v>
       </c>
       <c r="E170" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>84845.9175</v>
       </c>
       <c r="G170" t="n">
-        <v>5.784000000000001</v>
+        <v>1730373.594572519</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6745,7 +6845,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6762,22 +6862,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.79</v>
+        <v>5.86</v>
       </c>
       <c r="C171" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="D171" t="n">
-        <v>5.79</v>
+        <v>5.86</v>
       </c>
       <c r="E171" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="F171" t="n">
-        <v>56638.7647</v>
+        <v>44</v>
       </c>
       <c r="G171" t="n">
-        <v>5.785500000000001</v>
+        <v>1730329.594572519</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6787,7 +6887,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6804,22 +6904,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="C172" t="n">
-        <v>5.75</v>
+        <v>5.87</v>
       </c>
       <c r="D172" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="E172" t="n">
-        <v>5.75</v>
+        <v>5.87</v>
       </c>
       <c r="F172" t="n">
-        <v>39376.3415</v>
+        <v>21</v>
       </c>
       <c r="G172" t="n">
-        <v>5.784500000000001</v>
+        <v>1730350.594572519</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6829,7 +6929,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6846,22 +6946,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.76</v>
+        <v>5.82</v>
       </c>
       <c r="C173" t="n">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="D173" t="n">
-        <v>5.76</v>
+        <v>5.85</v>
       </c>
       <c r="E173" t="n">
-        <v>5.75</v>
+        <v>5.79</v>
       </c>
       <c r="F173" t="n">
-        <v>160113.3143</v>
+        <v>44</v>
       </c>
       <c r="G173" t="n">
-        <v>5.785000000000002</v>
+        <v>1730306.594572519</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6871,7 +6971,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6888,22 +6988,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.72</v>
+        <v>5.86</v>
       </c>
       <c r="C174" t="n">
-        <v>5.72</v>
+        <v>5.86</v>
       </c>
       <c r="D174" t="n">
-        <v>5.72</v>
+        <v>5.86</v>
       </c>
       <c r="E174" t="n">
-        <v>5.72</v>
+        <v>5.86</v>
       </c>
       <c r="F174" t="n">
-        <v>4027.8746</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>5.783500000000002</v>
+        <v>1730316.594572519</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6913,7 +7013,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6930,22 +7030,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C175" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D175" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E175" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F175" t="n">
-        <v>3538.5948</v>
+        <v>79481.0221</v>
       </c>
       <c r="G175" t="n">
-        <v>5.784500000000001</v>
+        <v>1730316.594572519</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6955,17 +7055,3003 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F176" t="n">
+        <v>201706.9653</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1932023.559872519</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F177" t="n">
+        <v>63697.268</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1995720.827872519</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7659.2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1988061.627872519</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1986061.627872519</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F180" t="n">
+        <v>292.31</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1986061.627872519</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F181" t="n">
+        <v>32272</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2018333.627872519</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F182" t="n">
+        <v>177629.9128</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2195963.540672519</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F183" t="n">
+        <v>27097.9936</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2195963.540672519</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F184" t="n">
+        <v>199100.3919</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2395063.932572519</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F185" t="n">
+        <v>44758</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2395063.932572519</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2897.66</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2392166.272572519</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7243.255</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2399409.527572519</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7615.39</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2391794.137572519</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F189" t="n">
+        <v>260664.8811</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2131129.256472519</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F190" t="n">
+        <v>169.8244</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2131299.080872519</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2131317.080872519</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F192" t="n">
+        <v>14189.33</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2117127.750872519</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F193" t="n">
+        <v>21.2671</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2117106.483772519</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F194" t="n">
+        <v>180812.4179</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1936294.065872519</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23052.6099</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1913241.455972519</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22770</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1936011.455972519</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F197" t="n">
+        <v>174780.2785</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1761231.177472519</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F198" t="n">
+        <v>17865.2809</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1761231.177472519</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2136</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1763367.177472519</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8695.652099999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1754671.525372519</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F201" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1714671.525372519</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22336.3885</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1737007.913872519</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F203" t="n">
+        <v>50137.966</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1686869.947872519</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C204" t="n">
         <v>5.76</v>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="D204" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F204" t="n">
+        <v>44495.8696</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1731365.817472519</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F205" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1731365.817472519</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2157.0317</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1733522.849172519</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5691.46</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1727831.389172519</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F208" t="n">
+        <v>189.003436426</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1728020.392608945</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F209" t="n">
+        <v>60952.9737</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1667067.418908945</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F210" t="n">
+        <v>272100.97</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1394966.448908945</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>387453.2845</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1007513.164408945</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>348218.8032</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1355731.967608945</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6808.2717</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1348923.695908945</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F214" t="n">
+        <v>500</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1349423.695908945</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F215" t="n">
+        <v>106880.4359</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1456304.131808945</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F216" t="n">
+        <v>21883.2185</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1456304.131808945</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F217" t="n">
+        <v>96132.35799999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1456304.131808945</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F218" t="n">
+        <v>54</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1456304.131808945</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F219" t="n">
+        <v>36</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1456304.131808945</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F220" t="n">
+        <v>301487.369</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1154816.762808945</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>10</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1154826.762808945</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1065272.562</v>
+      </c>
+      <c r="G222" t="n">
+        <v>89554.20080894511</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10993.4256</v>
+      </c>
+      <c r="G223" t="n">
+        <v>100547.6264089451</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>394226.6966</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-293679.0701910549</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F225" t="n">
+        <v>95504.76579999999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-293679.0701910549</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F226" t="n">
+        <v>10</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-293669.0701910549</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F227" t="n">
+        <v>478.0276</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-293669.0701910549</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3979.7542</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-297648.8243910549</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F229" t="n">
+        <v>35731.9516</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-261916.8727910549</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F230" t="n">
+        <v>93747.0379</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-261916.8727910549</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>12493.6206</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-249423.2521910549</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>90</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-249423.2521910549</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F233" t="n">
+        <v>286.551724137</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-249423.2521910549</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F234" t="n">
+        <v>54041.1453</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-303464.3974910549</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F235" t="n">
+        <v>18</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-303446.3974910549</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F236" t="n">
+        <v>36256.0306</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-303446.3974910549</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F237" t="n">
+        <v>150550</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-303446.3974910549</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F238" t="n">
+        <v>26472.6293</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-303446.3974910549</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>117207.6331</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-186238.7643910549</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F240" t="n">
+        <v>99</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-186337.7643910549</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-186327.7643910549</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C242" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F242" t="n">
+        <v>56638.7647</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-242966.5290910549</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F243" t="n">
+        <v>39376.3415</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-282342.8705910549</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F244" t="n">
+        <v>160113.3143</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-282342.8705910549</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C245" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4027.8746</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-286370.7451910549</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K245" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>3538.5948</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-282832.1503910549</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K246" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2345218.13667252</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2340053.603872519</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2340053.603872519</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2340063.603872519</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2340063.603872519</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2338793.580572519</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1932393.018872519</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1775358.018872519</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1775387.25047252</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1775441.25047252</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1775416.48207252</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1720897.91507252</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3272604.266472519</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3269251.973372519</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3269261.973372519</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3268926.68027252</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3571169.656772519</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3570995.949872519</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3420995.949872519</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3421005.949872519</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3420496.949872519</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -4213,10 +4213,14 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5.66</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4246,11 +4250,19 @@
         <v>729556.2164725191</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4291,19 @@
         <v>729566.8510725191</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4510,10 +4530,14 @@
         <v>606850.8510725191</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4543,11 +4567,19 @@
         <v>646868.8510725191</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4608,19 @@
         <v>725468.8510725191</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4649,19 @@
         <v>801039.8510725191</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5629,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5785,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6370,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6409,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6448,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6643,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6721,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6760,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6838,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6874,17 @@
         <v>2395063.932572519</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6913,17 @@
         <v>2392166.272572519</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6952,17 @@
         <v>2399409.527572519</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6991,17 @@
         <v>2391794.137572519</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7030,17 @@
         <v>2131129.256472519</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7069,17 @@
         <v>2131299.080872519</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7111,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7147,17 @@
         <v>2117127.750872519</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7189,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7384,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7579,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7657,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7696,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7735,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7774,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7813,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7852,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7930,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7969,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8008,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8047,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8086,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8125,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8203,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8242,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8281,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8320,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8437,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8593,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8671,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8710,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8866,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8905,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8944,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8983,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9022,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9061,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9100,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,15 +9175,15 @@
         <v>-282342.8705910549</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8476,12 +9214,12 @@
         <v>-286370.7451910549</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8515,12 +9253,12 @@
         <v>-282832.1503910549</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,6 +9270,6 @@
       <c r="M246" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>2340063.603872519</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1932393.018872519</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1775358.018872519</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1775387.25047252</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1775441.25047252</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1775416.48207252</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1720897.91507252</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3272604.266472519</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3269251.973372519</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3269261.973372519</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3268926.68027252</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3571169.656772519</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3570995.949872519</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3420995.949872519</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3421005.949872519</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3420496.949872519</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -3817,11 +3817,17 @@
         <v>608764.588572519</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3860,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3897,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +3934,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +3971,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4008,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4045,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4082,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4119,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4156,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4189,17 @@
         <v>479545.216472519</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4228,17 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4218,10 +4272,12 @@
       <c r="I116" t="n">
         <v>5.66</v>
       </c>
-      <c r="J116" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4255,12 +4311,10 @@
       <c r="I117" t="n">
         <v>5.66</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.66</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4296,12 +4350,10 @@
       <c r="I118" t="n">
         <v>5.67</v>
       </c>
-      <c r="J118" t="n">
-        <v>5.66</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4336,7 +4388,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4369,7 +4425,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4402,7 +4462,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4435,7 +4499,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4468,7 +4536,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4501,7 +4573,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,15 +4606,15 @@
         <v>606850.8510725191</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4567,17 +4643,13 @@
         <v>646868.8510725191</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4608,17 +4680,13 @@
         <v>725468.8510725191</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4649,17 +4717,13 @@
         <v>801039.8510725191</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4693,9 +4757,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,9 +4831,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,9 +4868,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,9 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,9 +4942,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,9 +4979,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,9 +5016,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,9 +5053,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,9 +5090,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,9 +5127,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +5164,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +5201,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,9 +5238,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5312,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,9 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,9 +5386,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,9 +5423,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,9 +5460,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,9 +5497,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,9 +5534,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,9 +5571,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,9 +5608,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,9 +5645,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,20 +5679,16 @@
         <v>2077909.873972519</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -5704,17 +5714,11 @@
         <v>2077931.873972519</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5743,17 +5747,11 @@
         <v>2077920.873972519</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5782,17 +5780,11 @@
         <v>2047762.964272519</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5821,17 +5813,11 @@
         <v>2019867.964372519</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5860,17 +5846,11 @@
         <v>2019857.964372519</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5902,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5941,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5977,17 +5945,11 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6016,17 +5978,11 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +6011,11 @@
         <v>2032981.487372519</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +6044,11 @@
         <v>1851533.155672519</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6136,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6253,14 +6179,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6370,14 +6278,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6409,14 +6311,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6448,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6484,17 +6374,11 @@
         <v>1730316.594572519</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6526,14 +6410,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +6476,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6643,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6721,14 +6575,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6799,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6838,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6877,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6955,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6994,14 +6806,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7033,14 +6839,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7072,14 +6872,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +6905,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6938,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7189,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +7004,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +7070,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7345,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7384,14 +7136,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7462,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7501,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7540,14 +7268,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7579,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7618,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7657,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7696,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7735,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7813,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8047,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8086,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8125,14 +7763,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +7796,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8203,14 +7829,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8242,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8281,14 +7895,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8320,14 +7928,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8359,14 +7961,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8398,14 +7994,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8437,14 +8027,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8476,14 +8060,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8515,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8554,14 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8593,14 +8159,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8632,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8671,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8710,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8788,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8827,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8866,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8905,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8944,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8983,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9061,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +8588,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +8621,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9178,14 +8654,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9217,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9256,20 +8720,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
       <c r="M246" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -583,7 +583,7 @@
         <v>2340063.603872519</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2338793.580572519</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -3817,17 +3817,11 @@
         <v>608764.588572519</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3860,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4008,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +4147,11 @@
         <v>479545.216472519</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +4180,11 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4272,12 +4218,10 @@
       <c r="I116" t="n">
         <v>5.66</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4311,10 +4255,12 @@
       <c r="I117" t="n">
         <v>5.66</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.66</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4350,10 +4296,12 @@
       <c r="I118" t="n">
         <v>5.67</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.66</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4388,11 +4336,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +4369,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4402,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4435,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4468,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4501,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4606,15 +4530,15 @@
         <v>606850.8510725191</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4643,13 +4567,17 @@
         <v>646868.8510725191</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4680,13 +4608,17 @@
         <v>725468.8510725191</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4721,11 +4653,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +4686,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4719,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4752,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4785,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4818,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4851,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4980,11 +4884,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +4917,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +4950,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +4983,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +5016,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +5049,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5082,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5115,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +5148,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5313,11 +5181,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +5214,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5247,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5280,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +5313,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5346,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5379,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5412,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +5445,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5646,11 +5478,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5679,16 +5507,14 @@
         <v>2077909.873972519</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -5714,7 +5540,7 @@
         <v>2077931.873972519</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5747,7 +5573,7 @@
         <v>2077920.873972519</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5780,7 +5606,7 @@
         <v>2047762.964272519</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5813,7 +5639,7 @@
         <v>2019867.964372519</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5846,7 +5672,7 @@
         <v>2019857.964372519</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5945,7 +5771,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5978,7 +5804,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6011,7 +5837,7 @@
         <v>2032981.487372519</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6044,7 +5870,7 @@
         <v>1851533.155672519</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6374,7 +6200,7 @@
         <v>1730316.594572519</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest HYC.xlsx
+++ b/BackTest/2019-10-29 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>19000</v>
       </c>
       <c r="G2" t="n">
-        <v>2345218.13667252</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5164.5328</v>
       </c>
       <c r="G3" t="n">
-        <v>2340053.603872519</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>2340053.603872519</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2340063.603872519</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>303289.4214</v>
       </c>
       <c r="G6" t="n">
-        <v>2340063.603872519</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1270.0233</v>
       </c>
       <c r="G7" t="n">
-        <v>2338793.580572519</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>14779.6694</v>
       </c>
       <c r="G9" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>50000</v>
       </c>
       <c r="G10" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>40434.7826</v>
       </c>
       <c r="G11" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>719058.842975206</v>
       </c>
       <c r="G12" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>259660.165289256</v>
       </c>
       <c r="G13" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>28129.917355371</v>
       </c>
       <c r="G14" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>18987.768595041</v>
       </c>
       <c r="G15" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>19717.851239669</v>
       </c>
       <c r="G16" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>196168.429664462</v>
       </c>
       <c r="G17" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>324391.239664462</v>
       </c>
       <c r="G18" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>299978.3471</v>
       </c>
       <c r="G19" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>27601.157</v>
       </c>
       <c r="G20" t="n">
-        <v>2338811.580572519</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>406418.5617</v>
       </c>
       <c r="G21" t="n">
-        <v>1932393.018872519</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>157035</v>
       </c>
       <c r="G22" t="n">
-        <v>1775358.018872519</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>29.2316</v>
       </c>
       <c r="G23" t="n">
-        <v>1775387.25047252</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>1775441.25047252</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>24.7684</v>
       </c>
       <c r="G25" t="n">
-        <v>1775416.48207252</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>54518.567</v>
       </c>
       <c r="G26" t="n">
-        <v>1720897.91507252</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1551706.3514</v>
       </c>
       <c r="G27" t="n">
-        <v>3272604.266472519</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3352.2931</v>
       </c>
       <c r="G28" t="n">
-        <v>3269251.973372519</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>3269261.973372519</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>335.2931</v>
       </c>
       <c r="G30" t="n">
-        <v>3268926.68027252</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>302242.9765</v>
       </c>
       <c r="G31" t="n">
-        <v>3571169.656772519</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>173.7069</v>
       </c>
       <c r="G32" t="n">
-        <v>3570995.949872519</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>150000</v>
       </c>
       <c r="G33" t="n">
-        <v>3420995.949872519</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>3421005.949872519</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>509</v>
       </c>
       <c r="G35" t="n">
-        <v>3420496.949872519</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>3420506.949872519</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4800</v>
       </c>
       <c r="G37" t="n">
-        <v>3420506.949872519</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>3420506.949872519</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>21.6844</v>
       </c>
       <c r="G39" t="n">
-        <v>3420506.949872519</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>395787.226</v>
       </c>
       <c r="G40" t="n">
-        <v>3024719.723872519</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2071312</v>
       </c>
       <c r="G41" t="n">
-        <v>3024719.723872519</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>894588.6901</v>
       </c>
       <c r="G42" t="n">
-        <v>3919308.413972519</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>119481.3</v>
       </c>
       <c r="G43" t="n">
-        <v>4038789.713972519</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1551990.9533</v>
       </c>
       <c r="G44" t="n">
-        <v>2486798.760672519</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1038146.2692</v>
       </c>
       <c r="G45" t="n">
-        <v>1448652.491472519</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>100676.7123</v>
       </c>
       <c r="G46" t="n">
-        <v>1448652.491472519</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>1448662.491472519</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>302030.1369</v>
       </c>
       <c r="G48" t="n">
-        <v>1750692.628372519</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>649656.0126</v>
       </c>
       <c r="G49" t="n">
-        <v>1750692.628372519</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>510578.2515</v>
       </c>
       <c r="G50" t="n">
-        <v>1240114.376872519</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>1240114.376872519</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>222</v>
       </c>
       <c r="G52" t="n">
-        <v>1240114.376872519</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>121</v>
       </c>
       <c r="G53" t="n">
-        <v>1240114.376872519</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>44</v>
       </c>
       <c r="G54" t="n">
-        <v>1240114.376872519</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>1240104.376872519</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>116233</v>
       </c>
       <c r="G56" t="n">
-        <v>1240104.376872519</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>124741</v>
       </c>
       <c r="G57" t="n">
-        <v>1115363.376872519</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>1115418.376872519</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>57479.897</v>
       </c>
       <c r="G59" t="n">
-        <v>1057938.479872519</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>28</v>
       </c>
       <c r="G60" t="n">
-        <v>1057966.479872519</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>1057966.479872519</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>52</v>
       </c>
       <c r="G62" t="n">
-        <v>1057966.479872519</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>1057966.479872519</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>1057955.479872519</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>53577.0342</v>
       </c>
       <c r="G65" t="n">
-        <v>1004378.445672519</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>74509.9485</v>
       </c>
       <c r="G66" t="n">
-        <v>929868.4971725191</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>929888.4971725191</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>33</v>
       </c>
       <c r="G68" t="n">
-        <v>929855.4971725191</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>929865.4971725191</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>111121</v>
       </c>
       <c r="G70" t="n">
-        <v>818744.4971725191</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1551.9222</v>
       </c>
       <c r="G71" t="n">
-        <v>817192.5749725191</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>817212.5749725191</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5240</v>
       </c>
       <c r="G73" t="n">
-        <v>817212.5749725191</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5220</v>
       </c>
       <c r="G74" t="n">
-        <v>822432.5749725191</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>18343.2767</v>
       </c>
       <c r="G75" t="n">
-        <v>804089.298272519</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1448.7297</v>
       </c>
       <c r="G76" t="n">
-        <v>804089.298272519</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>804089.298272519</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>804089.298272519</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1102320.7851</v>
       </c>
       <c r="G79" t="n">
-        <v>-298231.486827481</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>94879.52650000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-393111.013327481</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>149698.0474</v>
       </c>
       <c r="G85" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>-393101.013327481</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>-403101.013327481</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10010</v>
       </c>
       <c r="G88" t="n">
-        <v>-393091.013327481</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>-393111.013327481</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>28</v>
       </c>
       <c r="G90" t="n">
-        <v>-393139.013327481</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>4313.4624</v>
       </c>
       <c r="G91" t="n">
-        <v>-388825.550927481</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-388815.550927481</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>40</v>
       </c>
       <c r="G93" t="n">
-        <v>-388775.550927481</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>189664.7938</v>
       </c>
       <c r="G94" t="n">
-        <v>-578440.344727481</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-578430.344727481</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>349512.3483</v>
       </c>
       <c r="G96" t="n">
-        <v>-927942.693027481</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1461512.9057</v>
       </c>
       <c r="G97" t="n">
-        <v>533570.212672519</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>18</v>
       </c>
       <c r="G98" t="n">
-        <v>533588.212672519</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>533578.212672519</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>533618.212672519</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>533629.212672519</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>18</v>
       </c>
       <c r="G102" t="n">
-        <v>533647.212672519</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>533636.212672519</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>75128.3759</v>
       </c>
       <c r="G104" t="n">
-        <v>608764.588572519</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>608756.588572519</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>141</v>
       </c>
       <c r="G106" t="n">
-        <v>608897.588572519</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>144</v>
       </c>
       <c r="G107" t="n">
-        <v>609041.588572519</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>39980.6782</v>
       </c>
       <c r="G108" t="n">
-        <v>569060.9103725191</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>569070.9103725191</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>77</v>
       </c>
       <c r="G110" t="n">
-        <v>569147.9103725191</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>27206.3859</v>
       </c>
       <c r="G111" t="n">
-        <v>541941.5244725191</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>52396.308</v>
       </c>
       <c r="G112" t="n">
-        <v>489545.216472519</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>479545.216472519</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>200000</v>
       </c>
       <c r="G114" t="n">
-        <v>479545.216472519</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>250000</v>
       </c>
       <c r="G115" t="n">
-        <v>729545.2164725191</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,22 +3863,15 @@
         <v>2263.6041</v>
       </c>
       <c r="G116" t="n">
-        <v>729545.2164725191</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4247,26 +3893,15 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>729556.2164725191</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4288,26 +3923,15 @@
         <v>10.6346</v>
       </c>
       <c r="G118" t="n">
-        <v>729566.8510725191</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4329,18 +3953,15 @@
         <v>103686</v>
       </c>
       <c r="G119" t="n">
-        <v>625880.8510725191</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,18 +3983,15 @@
         <v>1010</v>
       </c>
       <c r="G120" t="n">
-        <v>626890.8510725191</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,18 +4013,15 @@
         <v>94</v>
       </c>
       <c r="G121" t="n">
-        <v>626796.8510725191</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4428,18 +4043,15 @@
         <v>1549.2283</v>
       </c>
       <c r="G122" t="n">
-        <v>626796.8510725191</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4461,18 +4073,21 @@
         <v>55</v>
       </c>
       <c r="G123" t="n">
-        <v>626851.8510725191</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,18 +4109,19 @@
         <v>20011</v>
       </c>
       <c r="G124" t="n">
-        <v>606840.8510725191</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,22 +4143,19 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>606850.8510725191</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4564,26 +4177,19 @@
         <v>40018</v>
       </c>
       <c r="G126" t="n">
-        <v>646868.8510725191</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4605,26 +4211,19 @@
         <v>78600</v>
       </c>
       <c r="G127" t="n">
-        <v>725468.8510725191</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4646,18 +4245,19 @@
         <v>75571</v>
       </c>
       <c r="G128" t="n">
-        <v>801039.8510725191</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4679,18 +4279,19 @@
         <v>311593.2138</v>
       </c>
       <c r="G129" t="n">
-        <v>1112633.064872519</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,18 +4313,19 @@
         <v>1041574.9936</v>
       </c>
       <c r="G130" t="n">
-        <v>2154208.058472519</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4745,18 +4347,19 @@
         <v>119</v>
       </c>
       <c r="G131" t="n">
-        <v>2154208.058472519</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4778,18 +4381,19 @@
         <v>33</v>
       </c>
       <c r="G132" t="n">
-        <v>2154175.058472519</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,18 +4415,19 @@
         <v>4664.2844</v>
       </c>
       <c r="G133" t="n">
-        <v>2154175.058472519</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,18 +4449,19 @@
         <v>2472</v>
       </c>
       <c r="G134" t="n">
-        <v>2154175.058472519</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4877,18 +4483,19 @@
         <v>78763</v>
       </c>
       <c r="G135" t="n">
-        <v>2075412.058472519</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,18 +4517,19 @@
         <v>22</v>
       </c>
       <c r="G136" t="n">
-        <v>2075390.058472519</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4943,18 +4551,19 @@
         <v>1018865.5758</v>
       </c>
       <c r="G137" t="n">
-        <v>3094255.634272519</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,18 +4585,19 @@
         <v>121</v>
       </c>
       <c r="G138" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5009,18 +4619,19 @@
         <v>33</v>
       </c>
       <c r="G139" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,18 +4653,19 @@
         <v>11</v>
       </c>
       <c r="G140" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5075,18 +4687,19 @@
         <v>2577</v>
       </c>
       <c r="G141" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,18 +4721,19 @@
         <v>3244</v>
       </c>
       <c r="G142" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5141,18 +4755,19 @@
         <v>3000</v>
       </c>
       <c r="G143" t="n">
-        <v>3094134.634272519</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5174,18 +4789,19 @@
         <v>100000</v>
       </c>
       <c r="G144" t="n">
-        <v>2994134.634272519</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,18 +4823,19 @@
         <v>33</v>
       </c>
       <c r="G145" t="n">
-        <v>2994167.634272519</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,18 +4857,19 @@
         <v>105767.8856</v>
       </c>
       <c r="G146" t="n">
-        <v>2888399.748672519</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,18 +4891,19 @@
         <v>88</v>
       </c>
       <c r="G147" t="n">
-        <v>2888487.748672519</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5306,18 +4925,19 @@
         <v>100044</v>
       </c>
       <c r="G148" t="n">
-        <v>2788443.748672519</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5339,18 +4959,19 @@
         <v>33</v>
       </c>
       <c r="G149" t="n">
-        <v>2788410.748672519</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5372,18 +4993,19 @@
         <v>55</v>
       </c>
       <c r="G150" t="n">
-        <v>2788465.748672519</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5405,18 +5027,19 @@
         <v>27620.1541</v>
       </c>
       <c r="G151" t="n">
-        <v>2760845.594572519</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5438,18 +5061,19 @@
         <v>55</v>
       </c>
       <c r="G152" t="n">
-        <v>2760790.594572519</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5471,18 +5095,19 @@
         <v>55</v>
       </c>
       <c r="G153" t="n">
-        <v>2760845.594572519</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5504,18 +5129,19 @@
         <v>682935.7206</v>
       </c>
       <c r="G154" t="n">
-        <v>2077909.873972519</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,18 +5163,19 @@
         <v>22</v>
       </c>
       <c r="G155" t="n">
-        <v>2077931.873972519</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5570,18 +5197,19 @@
         <v>11</v>
       </c>
       <c r="G156" t="n">
-        <v>2077920.873972519</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5603,18 +5231,19 @@
         <v>30157.9097</v>
       </c>
       <c r="G157" t="n">
-        <v>2047762.964272519</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,18 +5265,19 @@
         <v>27894.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>2019867.964372519</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5669,18 +5299,19 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>2019857.964372519</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5702,18 +5333,19 @@
         <v>87</v>
       </c>
       <c r="G160" t="n">
-        <v>2019944.964372519</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5735,18 +5367,19 @@
         <v>151984.898</v>
       </c>
       <c r="G161" t="n">
-        <v>2019944.964372519</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5768,18 +5401,19 @@
         <v>21701.522</v>
       </c>
       <c r="G162" t="n">
-        <v>1998243.442372519</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5801,18 +5435,19 @@
         <v>34</v>
       </c>
       <c r="G163" t="n">
-        <v>1998243.442372519</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5834,18 +5469,19 @@
         <v>34738.045</v>
       </c>
       <c r="G164" t="n">
-        <v>2032981.487372519</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5867,18 +5503,19 @@
         <v>181448.3317</v>
       </c>
       <c r="G165" t="n">
-        <v>1851533.155672519</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5900,18 +5537,19 @@
         <v>55</v>
       </c>
       <c r="G166" t="n">
-        <v>1851588.155672519</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5933,18 +5571,19 @@
         <v>121</v>
       </c>
       <c r="G167" t="n">
-        <v>1851709.155672519</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5966,18 +5605,19 @@
         <v>20701.0348</v>
       </c>
       <c r="G168" t="n">
-        <v>1831008.120872519</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5999,18 +5639,19 @@
         <v>100634.5263</v>
       </c>
       <c r="G169" t="n">
-        <v>1730373.594572519</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6032,18 +5673,19 @@
         <v>84845.9175</v>
       </c>
       <c r="G170" t="n">
-        <v>1730373.594572519</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6065,18 +5707,19 @@
         <v>44</v>
       </c>
       <c r="G171" t="n">
-        <v>1730329.594572519</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6098,18 +5741,19 @@
         <v>21</v>
       </c>
       <c r="G172" t="n">
-        <v>1730350.594572519</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,18 +5775,19 @@
         <v>44</v>
       </c>
       <c r="G173" t="n">
-        <v>1730306.594572519</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6164,18 +5809,19 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>1730316.594572519</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6197,18 +5843,19 @@
         <v>79481.0221</v>
       </c>
       <c r="G175" t="n">
-        <v>1730316.594572519</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6230,18 +5877,19 @@
         <v>201706.9653</v>
       </c>
       <c r="G176" t="n">
-        <v>1932023.559872519</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6263,18 +5911,19 @@
         <v>63697.268</v>
       </c>
       <c r="G177" t="n">
-        <v>1995720.827872519</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6296,18 +5945,19 @@
         <v>7659.2</v>
       </c>
       <c r="G178" t="n">
-        <v>1988061.627872519</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6329,18 +5979,19 @@
         <v>2000</v>
       </c>
       <c r="G179" t="n">
-        <v>1986061.627872519</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6362,18 +6013,19 @@
         <v>292.31</v>
       </c>
       <c r="G180" t="n">
-        <v>1986061.627872519</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6395,18 +6047,19 @@
         <v>32272</v>
       </c>
       <c r="G181" t="n">
-        <v>2018333.627872519</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6428,18 +6081,19 @@
         <v>177629.9128</v>
       </c>
       <c r="G182" t="n">
-        <v>2195963.540672519</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6461,18 +6115,19 @@
         <v>27097.9936</v>
       </c>
       <c r="G183" t="n">
-        <v>2195963.540672519</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6494,18 +6149,19 @@
         <v>199100.3919</v>
       </c>
       <c r="G184" t="n">
-        <v>2395063.932572519</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6527,18 +6183,19 @@
         <v>44758</v>
       </c>
       <c r="G185" t="n">
-        <v>2395063.932572519</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6560,18 +6217,19 @@
         <v>2897.66</v>
       </c>
       <c r="G186" t="n">
-        <v>2392166.272572519</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6593,18 +6251,19 @@
         <v>7243.255</v>
       </c>
       <c r="G187" t="n">
-        <v>2399409.527572519</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6626,18 +6285,19 @@
         <v>7615.39</v>
       </c>
       <c r="G188" t="n">
-        <v>2391794.137572519</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6659,18 +6319,19 @@
         <v>260664.8811</v>
       </c>
       <c r="G189" t="n">
-        <v>2131129.256472519</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6692,18 +6353,19 @@
         <v>169.8244</v>
       </c>
       <c r="G190" t="n">
-        <v>2131299.080872519</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6725,18 +6387,19 @@
         <v>18</v>
       </c>
       <c r="G191" t="n">
-        <v>2131317.080872519</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6758,18 +6421,19 @@
         <v>14189.33</v>
       </c>
       <c r="G192" t="n">
-        <v>2117127.750872519</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6791,18 +6455,19 @@
         <v>21.2671</v>
       </c>
       <c r="G193" t="n">
-        <v>2117106.483772519</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6824,18 +6489,19 @@
         <v>180812.4179</v>
       </c>
       <c r="G194" t="n">
-        <v>1936294.065872519</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6857,18 +6523,19 @@
         <v>23052.6099</v>
       </c>
       <c r="G195" t="n">
-        <v>1913241.455972519</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6890,18 +6557,19 @@
         <v>22770</v>
       </c>
       <c r="G196" t="n">
-        <v>1936011.455972519</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6923,18 +6591,19 @@
         <v>174780.2785</v>
       </c>
       <c r="G197" t="n">
-        <v>1761231.177472519</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6956,18 +6625,19 @@
         <v>17865.2809</v>
       </c>
       <c r="G198" t="n">
-        <v>1761231.177472519</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6989,18 +6659,19 @@
         <v>2136</v>
       </c>
       <c r="G199" t="n">
-        <v>1763367.177472519</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7022,18 +6693,19 @@
         <v>8695.652099999999</v>
       </c>
       <c r="G200" t="n">
-        <v>1754671.525372519</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7055,18 +6727,19 @@
         <v>40000</v>
       </c>
       <c r="G201" t="n">
-        <v>1714671.525372519</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7088,18 +6761,19 @@
         <v>22336.3885</v>
       </c>
       <c r="G202" t="n">
-        <v>1737007.913872519</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7121,18 +6795,19 @@
         <v>50137.966</v>
       </c>
       <c r="G203" t="n">
-        <v>1686869.947872519</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7154,18 +6829,19 @@
         <v>44495.8696</v>
       </c>
       <c r="G204" t="n">
-        <v>1731365.817472519</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7187,18 +6863,19 @@
         <v>13000</v>
       </c>
       <c r="G205" t="n">
-        <v>1731365.817472519</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7220,18 +6897,19 @@
         <v>2157.0317</v>
       </c>
       <c r="G206" t="n">
-        <v>1733522.849172519</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7253,18 +6931,19 @@
         <v>5691.46</v>
       </c>
       <c r="G207" t="n">
-        <v>1727831.389172519</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7286,18 +6965,19 @@
         <v>189.003436426</v>
       </c>
       <c r="G208" t="n">
-        <v>1728020.392608945</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7319,18 +6999,19 @@
         <v>60952.9737</v>
       </c>
       <c r="G209" t="n">
-        <v>1667067.418908945</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7352,18 +7033,19 @@
         <v>272100.97</v>
       </c>
       <c r="G210" t="n">
-        <v>1394966.448908945</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7385,18 +7067,19 @@
         <v>387453.2845</v>
       </c>
       <c r="G211" t="n">
-        <v>1007513.164408945</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7418,18 +7101,19 @@
         <v>348218.8032</v>
       </c>
       <c r="G212" t="n">
-        <v>1355731.967608945</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7451,18 +7135,19 @@
         <v>6808.2717</v>
       </c>
       <c r="G213" t="n">
-        <v>1348923.695908945</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7484,18 +7169,19 @@
         <v>500</v>
       </c>
       <c r="G214" t="n">
-        <v>1349423.695908945</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7517,18 +7203,19 @@
         <v>106880.4359</v>
       </c>
       <c r="G215" t="n">
-        <v>1456304.131808945</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7550,18 +7237,19 @@
         <v>21883.2185</v>
       </c>
       <c r="G216" t="n">
-        <v>1456304.131808945</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7583,18 +7271,19 @@
         <v>96132.35799999999</v>
       </c>
       <c r="G217" t="n">
-        <v>1456304.131808945</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7616,18 +7305,19 @@
         <v>54</v>
       </c>
       <c r="G218" t="n">
-        <v>1456304.131808945</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7649,18 +7339,19 @@
         <v>36</v>
       </c>
       <c r="G219" t="n">
-        <v>1456304.131808945</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7682,18 +7373,19 @@
         <v>301487.369</v>
       </c>
       <c r="G220" t="n">
-        <v>1154816.762808945</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7715,18 +7407,19 @@
         <v>10</v>
       </c>
       <c r="G221" t="n">
-        <v>1154826.762808945</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7748,18 +7441,19 @@
         <v>1065272.562</v>
       </c>
       <c r="G222" t="n">
-        <v>89554.20080894511</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7781,18 +7475,19 @@
         <v>10993.4256</v>
       </c>
       <c r="G223" t="n">
-        <v>100547.6264089451</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7814,18 +7509,19 @@
         <v>394226.6966</v>
       </c>
       <c r="G224" t="n">
-        <v>-293679.0701910549</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7847,18 +7543,19 @@
         <v>95504.76579999999</v>
       </c>
       <c r="G225" t="n">
-        <v>-293679.0701910549</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7880,18 +7577,19 @@
         <v>10</v>
       </c>
       <c r="G226" t="n">
-        <v>-293669.0701910549</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7913,18 +7611,19 @@
         <v>478.0276</v>
       </c>
       <c r="G227" t="n">
-        <v>-293669.0701910549</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7946,18 +7645,19 @@
         <v>3979.7542</v>
       </c>
       <c r="G228" t="n">
-        <v>-297648.8243910549</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7979,18 +7679,19 @@
         <v>35731.9516</v>
       </c>
       <c r="G229" t="n">
-        <v>-261916.8727910549</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8012,18 +7713,19 @@
         <v>93747.0379</v>
       </c>
       <c r="G230" t="n">
-        <v>-261916.8727910549</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8045,18 +7747,19 @@
         <v>12493.6206</v>
       </c>
       <c r="G231" t="n">
-        <v>-249423.2521910549</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8078,18 +7781,19 @@
         <v>90</v>
       </c>
       <c r="G232" t="n">
-        <v>-249423.2521910549</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8111,18 +7815,19 @@
         <v>286.551724137</v>
       </c>
       <c r="G233" t="n">
-        <v>-249423.2521910549</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8144,18 +7849,19 @@
         <v>54041.1453</v>
       </c>
       <c r="G234" t="n">
-        <v>-303464.3974910549</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8177,18 +7883,19 @@
         <v>18</v>
       </c>
       <c r="G235" t="n">
-        <v>-303446.3974910549</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8210,18 +7917,19 @@
         <v>36256.0306</v>
       </c>
       <c r="G236" t="n">
-        <v>-303446.3974910549</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8243,18 +7951,19 @@
         <v>150550</v>
       </c>
       <c r="G237" t="n">
-        <v>-303446.3974910549</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8276,18 +7985,19 @@
         <v>26472.6293</v>
       </c>
       <c r="G238" t="n">
-        <v>-303446.3974910549</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8309,18 +8019,19 @@
         <v>117207.6331</v>
       </c>
       <c r="G239" t="n">
-        <v>-186238.7643910549</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8342,18 +8053,19 @@
         <v>99</v>
       </c>
       <c r="G240" t="n">
-        <v>-186337.7643910549</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8375,18 +8087,19 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>-186327.7643910549</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8408,18 +8121,19 @@
         <v>56638.7647</v>
       </c>
       <c r="G242" t="n">
-        <v>-242966.5290910549</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8441,18 +8155,19 @@
         <v>39376.3415</v>
       </c>
       <c r="G243" t="n">
-        <v>-282342.8705910549</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8474,18 +8189,19 @@
         <v>160113.3143</v>
       </c>
       <c r="G244" t="n">
-        <v>-282342.8705910549</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8507,18 +8223,19 @@
         <v>4027.8746</v>
       </c>
       <c r="G245" t="n">
-        <v>-286370.7451910549</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8540,18 +8257,19 @@
         <v>3538.5948</v>
       </c>
       <c r="G246" t="n">
-        <v>-282832.1503910549</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
